--- a/deuChatbot/research_result/table_to_json(3500_400).xlsx
+++ b/deuChatbot/research_result/table_to_json(3500_400).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21070,6 +21070,6897 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 실기시험의 일시와 장소에 대한 정보를 포함하고 있지만, 원본 텍스트에 명시된 실기종목, 준비물, 주제, 화지 크기 및 시험 시간과 같은 중요한 세부사항이 누락되어 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트의 구체적인 내용이 생략되었고, 새로운 정보가 추가되어 있어 두 텍스트 간의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 정보를 제공하지만, 원본 텍스트의 주요 내용과는 다소 관련성이 떨어집니다. 특히, 실기시험의 구체적인 준비물과 주제에 대한 정보가 부족합니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트의 정보가 누락되어 있어 전체적인 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문단이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 정보가 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 정확하게 반영하지 않으며, 중요한 세부사항이 누락되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 품질 차원에서 부족한 점이 많습니다. 사실성, 일관성, 정확성 모두 낮은 점수를 받았기 때문에 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 다르게 해석될 수 있는 부분이 있습니다. 따라서 의미적 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 원본 텍스트의 정보가 부족하여 완전한 이해를 돕지 못할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.6628130828926212</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>2024년 디자인조형학과의 실기시험은 다음과 같이 진행됩니다:
+- **일시**: 2024년 1월 17일 (수)
+- **장소**: 입학안내 홈페이지에서 안내되는 대기실 및 고사장
+- **대기실 및 입실시간 안내**: 2024년 1월 12일 (금) 14:00 이후, 입학안내 홈페이지에서 확인 가능합니다.
+디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 등 다양한 분야를 포함한 종합적인 실기평가가 이루어집니다. 수험생들은 각 분야별로 준비해야 하는 내용이 다르므로, 해당 분야에 대한 전문성과 창의력을 평가받을 것입니다.
+면접평가와 함께 실기시험은 학업역량과 전공적합성을 종합적으로 평가하는 중요한 부분입니다. 따라서 수험생들은 자신의 디자인 능력과 창의력을 최대한 발휘할 수 있도록 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기 종목, 준비물, 실기 주제, 화지 크기 및 시간에 대한 정보가 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 모든 핵심 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.9059509167111237</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 다음과 같습니다:
+1. **실기종목**: 기초디자인, 사고의 전환
+2. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+3. **실기주제**:
+   - 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다.
+   - 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+4. **화지크기**:
+   - 켄트지3절
+5. **시간**:
+   - 5시간
+위와 같이 디자인조형학과의 실기 종목과 준비물, 실기 주제, 화지 크기 및 시간이 정해져 있습니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 대회 목록을 정확하게 포함하고 있으며, 추가적인 설명도 원본의 내용을 잘 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 대회 목록과 설명이 원본과 동일하게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 모든 주요 포인트를 잘 다루고 있습니다. 대회 목록과 그 중요성에 대한 설명이 포함되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 표현이 자연스럽고 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 설명이 명확하게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 정보의 정확성에 문제가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.903428764621883</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다.
+1. **배드민턴(남)**:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (주니어국제대회 포함, 국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. **축구(남)**:
+   -춘계한국고등학교축구연맹전
+   -추계한국고등학교축구연맹전
+   -대한축구협회장배전국고등학교축구대회
+   -문화체육관광부장관기전국고등학교축구대회
+   -문화체육관광부장관배전국고등학교축구대회
+   -백운기전국고등학교축구대회
+   -전국고등축구리그(권역별고교축구리그)
+   -전국고등축구리그왕중왕전
+   -무학기전국고등학교축구대회
+   -청룡기전국고등학교축구대회
+   -백록기전국고등학교축구대회
+   -금강대기전국고등학교축구대회
+   -대통령금배전국고등학교축구대회
+   -금석배전국고등학생축구대회
+   -부산MBC전국고등학생축구대회
+   -K리그 U18 챔피언십
+   -K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기준으로 모집이 이루어지므로, 해당 대회에서 좋은 성적을 거두는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 주제B의 내용이 원본 텍스트와 다릅니다. 원본 텍스트의 주제B는 "악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음"인데, 생성된 응답에서는 "콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼"로 잘못 기재되어 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 떨어집니다. 주제B의 내용이 다르기 때문에, 주제 선정 및 연결 주제에 대한 설명도 일관되지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 기초디자인 실기시험의 주제와 관련된 내용을 다루고 있지만, 주제B의 잘못된 정보로 인해 일부 관련성이 떨어집니다. 그러나 주제A는 정확하게 언급되어 있어 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 주제B의 잘못된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답의 구조는 논리적으로 연결되어 있지만, 주제B의 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 주제 선정 과정에 대한 설명이 명확하지 않게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 주제B의 내용이 원본 텍스트와 다르기 때문에 정확성이 낮습니다. 주제A는 정확하지만, 주제B의 오류로 인해 전체적인 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점을 가지고 있지만, 주제B의 오류로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 주제B의 잘못된 정보로 인해 의미 전달이 불완전합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 주제B의 잘못된 정보로 인해 약간의 혼란이 있을 수 있습니다. 그러나 주제A는 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.7683901997547823</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B를 각각 선정하여 연결된 주제로 준비해야 합니다. 예시로 주제A와 주제B가 다음과 같이 제공될 수 있습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+당일에는 이들 중에서 각 1개씩 선정하여 연결된 주제를 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 출결 점수가 반영되지 않는다는 주장을 반복하여 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 내용을 다루고 있으며, 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 명확한 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문과 일치하며, 사실에 대한 정확성을 유지하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.7156520636673667</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 각 전형 요소의 비율을 살펴보면, 모든 전형 유형에서 학생부 교과, 출결, 서류, 면접, 실기, 수능 중 출결의 비율은 0%입니다.
+따라서, 동의대학교의 학생부교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원 수와 전형에 대한 정보를 정확하게 반영하고 있습니다. "2024년"이라는 추가 정보는 사실과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원문과의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에 포함된 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답은 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 일치하며, 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.9301294051326514</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원과 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.8393541334203359</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 모집하는 인원은 28명입니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 대한 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.8305456692101937</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반학생 전형의 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 점수와 등급이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 완벽하게 반영하고 있으며, 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.9474694630557944</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문은 예술고 학생이 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 주제와의 관련성이 낮습니다. 원문에서의 핵심 정보와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 논리적 흐름이 약해집니다. 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 예술고 학생의 지원 가능성에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두에서 심각한 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 내용의 정확성이 결여되어 있어 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.6721431399477472</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>6년 과정의 경우, 예술고 학생이 농어촌 지역에 소재하는 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 중 본인 및 부모 모두가 농어촌 지역에 거주한 자라면 지원 가능합니다. 12년 과정의 경우, 예술고 학생이 초·중·고등학교 전 교육과정을 농어촌 지역 소재 학교에서 이수하고 거주한 자라면 지원 가능합니다.
+제출서류는 다음과 같습니다:
+- 지원자 본인의 가족관계증명서 1부
+- 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+따라서 예술고 학생이 농어촌 지역에 소재하는 중·고등학교에서 전 교육과정을 이수하고 거주한 자라면 나군 학생부교과 농어촌학생전형으로 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 기록과 배점에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8692885704245614</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이며, 이 기록에 대한 배점은 275점입니다.
+이 정보는 다음과 같은 테이블에서 얻을 수 있습니다:
+```plaintext
+등급  / 제자리 멀리뛰기(여) / Z-런 (여)
+4     / 218~221             / 14.80~14.99
+```
+위 테이블에서 4등급의 여자 제자리 멀리뛰기는 218~221cm이며, 이에 대한 배점은 275점입니다.
+따라서, 레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록은 218~221cm이고, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 출결 반영 비율이 0%라고 주장하고 있지만, 원본 텍스트에서는 12%라고 명시되어 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 출결 반영 비율이 12%인 반면, 생성된 응답에서는 0%라고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 출결 반영 비율에 대한 질문에 대한 답변을 제공하고 있지만, 잘못된 정보를 포함하고 있어 관련성이 떨어집니다. 그러나 출결 반영 비율에 대한 언급이 있으므로 완전히 무관하다고 보기는 어렵습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원본 텍스트와의 연결이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 출결 반영 비율이 0%라는 주장은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 받았으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.6372206044847455</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 경기지도학과는 출결이 전형요소 반영비율에 포함되지 않습니다. 출결의 반영 비율은 0%입니다.
+상세 정보를 확인하시려면, 제공된 데이터 중 해당 학과와 관련된 항목을 찾아보시거나, 주어진 링크를 참조해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 모집 인원과 학과명, 학년도 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.9453230416226778</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 맥락과 잘 맞아떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 일정에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.5112262516221369</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 있습니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "수능 최저 학력 기준은 없습니다."라는 원문과 상충되는 내용을 포함하고 있습니다. 응답은 수능 최저기준이 없다는 사실을 명확히 전달하지 않고, 대신 정보가 없다고 언급하며 다른 방법을 제안하고 있습니다. 이는 원문과의 사실적 일치를 저해합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 부족합니다. 원문은 수능 최저기준이 없다고 명시하고 있지만, 생성된 응답은 기준이 없다는 점을 명확히 하지 않고 다른 정보를 제공하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저기준에 대한 정보를 찾는 방법을 제안하고 있어 관련성이 높습니다. 그러나 원문에서 명시된 "수능 최저 학력 기준은 없습니다."라는 핵심 정보를 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 제안된 방법들이 순차적으로 나열되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 수능 최저기준이 없다는 사실을 명확히 전달하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 평가를 받을 수 있지만, 사실성과 일관성에서 큰 결함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원문과의 일치성이 부족하여 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 제안된 방법들이 명확하게 설명되어 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.4657643398761815</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준에 대한 정보가 제공된 문서에서 명확히 확인할 수 없습니다. 수능 최저기준은 각 학과별로 다를 수 있으며, 해당 정보는 일반적으로 대학 홈페이지나 입학처 공지사항을 통해 확인할 수 있습니다.
+추천드리는 방법은 다음과 같습니다:
+1. 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 방문하여 입학 안내 섹션을 확인합니다.
+2. 해당 페이지에서 2024학년도 수능 최저기준 정보를 찾아보세요.
+만약에도 문서에 명시되어 있지 않다면, 위의 웹사이트를 통해 직접 확인하시거나 대학 입학처로 문의하시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과 목록에서 심리학과, 라이프융합학부, 경기지도학과를 포함하지 않고 있으며, 잘못된 학과명(로봇자동화공학과, 건축학과)을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트에 포함된 학과들이 누락되었고, 잘못된 학과들이 추가되어 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2  
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 질문에 답하고 있지만, 제공된 정보가 부정확하여 관련성이 낮습니다. 원본 텍스트의 주요 내용을 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 구조적으로 나쁘지 않지만, 잘못된 정보로 인해 논리적인 흐름이 약간 손상되었습니다. 원본 텍스트와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 의미적으로 적절하지 않습니다. 원본 텍스트의 맥락을 제대로 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 편입니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.718010842557407</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과들은 다음과 같습니다:
+1. ICT융합공과대학 - 로봇자동화공학과
+2. 상경대학 - 스마트항만물류학과 
+3. 상경대학 - 창업투자경영학과
+4. 공과대학 - 건축학과(5년제)
+이들 학과가 2024학년도에 신설되어 모집을 진행하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 서류와 면접의 비율은 정확하게 언급하고 있지만, "학생부 교과"와 "출결" 항목은 원본 텍스트에 포함되어 있지 않으며, 잘못된 정보가 추가되었습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보(학생부 교과, 출결)를 포함하고 있어 일관성이 떨어집니다. 원본 텍스트의 정보와 충돌하는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 정보를 제공하고 있으나, 불필요한 세부사항(학생부 교과, 출결)을 포함하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 나열되어 있지만, 원본 텍스트의 핵심 내용과의 연결이 약해 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 포함하고 있지만, 추가된 정보가 잘못된 것으로 보이므로 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와의 일치성이 떨어지고, 잘못된 정보가 포함되어 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 의미를 전달하고 있지만, 추가된 정보가 원본 텍스트의 맥락과 맞지 않아 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 불필요한 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.8374551186088849</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 학생부 교과: 70%
+- 출결: 12%
+- 서류: 70% (이 부분은 지원 자격 및 서류 평가 비중을 의미합니다)
+- 면접: 30%
+따라서, 이 전형에서는 주로 학생부 교과 성적과 서류 평가에 중점을 두고 있으며, 면접도 포함되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 모집단위를 일부 언급하고 있지만, '의료·보건·생활대학'을 누락했습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 공과대학과 ICT융합공과대학에 대한 정보를 제공하지만, 원본 텍스트에 포함된 다른 모집단위에 대한 언급이 없어 일관성이 떨어집니다. 따라서 점수는 3입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 수능 가산점 적용에 대한 정보를 직접적으로 다루고 있습니다. 따라서 점수는 5입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, 약간의 어색함이 느껴질 수 있어 점수는 4입니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 정보의 누락으로 인해 완전한 일관성은 부족하므로 점수는 4입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답은 일부 정확한 정보를 제공하지만, 원본 텍스트의 모든 사실을 반영하지 않기 때문에 정확성 점수는 3입니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으나, 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다. 따라서 점수는 4입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보의 누락으로 인해 완전한 적합성은 부족합니다. 점수는 4입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 정보의 누락으로 인해 약간의 혼란을 줄 수 있습니다. 따라서 점수는 4입니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.8133261908430471</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과는 공과대학과 ICT융합공과대학 모집단위입니다. 이들 학과에서는 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10% 가산점을 부여합니다.
+따라서, 공과대학과 ICT융합공과대학 모집단위에서 수능 가산점을 받을 수 있는 학생은 수학(미적분 또는 기하) 과목을 응시한 경우에 해당됩니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적이 100% 반영된다는 원문 내용을 왜곡하고 있습니다. 원문에서는 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답에서는 각 영역이 25%씩 반영된다고 설명하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 수능 성적을 100% 반영한다고 명시하고 있으나, 생성된 응답은 각 영역의 비율을 다르게 설명하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하고 있으나, 원문에서 강조한 100% 반영이라는 핵심 내용을 간과하고 있습니다. 그럼에도 불구하고 관련된 정보를 제공하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 원문과의 불일치로 인해 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나쁘지 않지만, 원문과의 불일치로 인해 논리적인 흐름이 약간 깨집니다. 각 항목이 나열되어 있지만, 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 크게 다릅니다. 수능 성적을 100% 반영한다는 사실을 잘못 해석하고 있으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 원문과의 불일치로 인해 전반적으로 낮은 품질을 보입니다. 사실성, 일관성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 반영에 대한 정보를 제공하지만, 원문과의 의미적 일치가 부족합니다. 원문의 핵심 내용을 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7492392655893632</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적이 다음과 같이 반영됩니다.
+1. **반영 영역**: 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목)입니다.
+2. **반영 비율**: 각 영역이 25%씩 반영됩니다.
+따라서, 가군에서는 수능 성적을 국어, 수학, 영어, 탐구 등 네 가지 영역에서 각각 25%를 반영하여 합격 점수를 산출합니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기고사의 날짜에 대한 정보를 제공하지 않고 있으며, 원본 텍스트의 사실과 완전히 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있으며, 실기고사 날짜에 대한 언급이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사 날짜에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 괜찮지만, 한국어로 질문에 대한 답변이 아닌 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 실기고사 날짜에 대한 정보가 없기 때문에 논리적인 흐름이 없습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 전혀 반영하지 않으며, 실기고사 날짜에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 모든 품질 차원에서 매우 낮은 점수를 받으며, 원본 텍스트와의 관련성이 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 전혀 일치하지 않으며, 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려운 부분이 있으며, 원본 텍스트와의 관련성이 없기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.5463041232670238</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>所提供的信息中并没有提到2024学年东义大学加军实际考试的具体日期。建议直接访问“https://ipsi. deu. ac. kr/main. do”网站以获取最新的官方公告和详细安排。</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 내용을 완전히 반대하는 정보를 제공하고 있습니다. 원본 텍스트에서는 특정 모집단위가 제외된다고 명시하고 있지만, 생성된 응답에서는 모든 모집단위가 지원 가능하다고 주장하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 담고 있어 일관성이 없습니다. 원본에서 제외된다고 언급된 학과들이 생성된 응답에서는 포함된 것으로 잘못 해석되고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원본의 핵심 정보인 모집단위의 제외 여부에 대한 정확한 답변을 제공하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 평가에는 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 응답의 구조는 비교적 일관되지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원본과의 불일치로 인해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 특정 모집단위가 제외된다는 사실을 부정하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 등에서 모두 낮은 점수를 받고 있습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 의미적으로도 부적절합니다. 원본 텍스트의 내용을 왜곡하고 있으며, 제공된 정보와 일치하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.5951465160115194</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 특정 모집단위는 제외되지 않았습니다. 제공된 정보에 따르면, 모든 모집단위가 해당 전형을 통해 지원 가능합니다. 만약 특정 모집단위가 제외되었다면 그 부분이 명확히 언급되어야 하므로 현재의 정보에서는 그러한 변경사항이 없습니다. 더 자세한 내용은 "https://ipsi.deu.ac.kr/main.do"를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 일치하며, 수능 최저기준이 적용되지 않는다는 사실을 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 일관되며, 수능 최저기준이 적용되지 않는다는 내용을 반복적으로 확인하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 수능 최저기준에 대한 정보를 명확히 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 이해하기 쉬운 문장 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 완벽하게 일치하며, 사실에 대한 정확성을 유지하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 기록하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있도록 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8388951663002454</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다.
+참조할 내용은 다음과 같습니다:
+```plaintext
+전형 유형  / 전형명  / 모집 인원  / 사정 단계  / 전형요소 반영비율(%){학생부교과  / 출결  / 서류  / 면접  / 실기  / 수능}  / 수능최저기준
+...
+다군 수능(일반학생전형) 전 모집단위
+...
+수능최저기준: 수능최저기준 없음
+```
+따라서, 다군 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과가 아동학과로 변경되었다고 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 원본 텍스트에는 여러 학과의 변경 사항이 나열되어 있지만, 생성된 응답은 보육가정상담학과에만 초점을 맞추고 있어 전체적인 사실성을 완벽하게 반영하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일관되게 반영하고 있으며, 보육가정상담학과의 변경 사항을 정확히 설명하고 있습니다. 그러나 다른 학과의 변경 사항에 대한 언급이 없기 때문에 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 학과의 분리 및 명칭 변경에 직접적으로 관련이 있습니다. 따라서 매우 높은 관련성을 가지고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 명칭 변경과 관련된 정보를 명확하게 전달하고 있습니다. 그러나 다른 학과에 대한 정보가 누락되어 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 변경 사항에 대해 정확하게 설명하고 있지만, 원본 텍스트에 포함된 다른 학과의 정보는 누락되어 있습니다. 따라서 정확성 점수는 다소 낮습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 사실성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.5425178591083538</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 "보육·가정상담학과"가 "아동학과"로 명칭이 변경되었습니다. 또한, 이 학과는 구분명에 따라 학부에서 학과로 분리된 것으로 보입니다.
+상세 내용은 다음과 같습니다:
+- 2023학년도: 보육·가정상담학과
+- 2024학년도: 아동학과
+이와 같이 명칭 변경 및 분류 변경이 이루어졌습니다. 더 자세한 정보는 공식 웹사이트를 참조하시기 바랍니다. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원서접수 마감일이 2024년 1월 6일(토) 18시라는 사실을 정확하게 반영하고 있으며, 추가적인 세부사항도 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 마감일과 관련된 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용인 원서접수 마감일에 직접적으로 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.7567653505769109</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수(인터넷) 마감일은 2024년 1월 6일까지입니다. 자세한 일정은 다음과 같습니다:
+- **원서접수(인터넷)**: 
+  - 일정: 2024. 01. 03.(수)～2024. 01. 06.(토)
+  - 마감일: 18시까지
+원서접수는 이 기간 내에 완료해야 하며, 마감일은 1월 6일 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전형 요소 변화에 대한 정보가 일부 정확하지 않으며, 원본 텍스트의 내용을 왜곡하거나 생략한 부분이 있습니다. 예를 들어, '학생부종합(성인학습자전형)'에 대한 설명이 원본과 다르게 기술되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 특히, 전형의 이름과 세부 사항이 원본과 다르게 표현되어 있어 혼란을 초래합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 일부 내용이 원본과 맞지 않아 관련성이 떨어집니다. 전형의 변화에 대한 설명이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 일부 문장이 다소 어색하게 표현되어 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 부족하여 일관성이 떨어집니다. 각 전형에 대한 설명이 명확하게 연결되지 않아 이해하기 어려운 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많아 정확성이 낮습니다. 특히 전형의 이름과 비율에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과 맞지 않는 부분이 있어 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 이해하기 어려운 부분이 있으며, 원본 텍스트와의 차이로 인해 혼란을 초래할 수 있습니다. 전반적으로 명확성에 문제가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.7921837473312855</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형들은 다음과 같습니다:
+1. **학생부종합(조기취업형계약학과전형)**:
+   - 2023학년도: 서류(학생부)70%+면접30%
+   - 2024학년도: 서류(학생부)60%+면접40%
+2. **학생부종합(성인학습자(정원내·외)전형)**:
+   - 전형요소 반영비율이 변경되었습니다.
+3. **학생부종합(평생학습자전형)**:
+   - 서류와 면접의 비율이 동일하게 유지되었지만, 지원자격과 제출서류가 일부 변경되었습니다.
+4. **학생부교과(농어촌학생전형) 6년 과정**:
+   - 추가 제출서류로 고교 졸업증명서와 부모의 초본을 포함하였습니다.
+5. **학생부교과(농어촌학생전형) 12년 과정**:
+   - 추가 제출서류로 고교 졸업증명서와 본인의 초본을 포함하였습니다.
+이러한 변화들은 각 전형별로 지원 자격, 서류 제출 내용 및 평가 기준에 영향을 미치고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기 비중이 70%라는 정보가 일관되게 전달되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 실기 비중에 대한 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 실기 비중에 직접적으로 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현으로 잘 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.8370004499978217</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다. 
+상세 정보는 다음과 같습니다:
+- 학생부 교과: 18%
+- 출결: 12%
+- 서류(실적): 70%
+따라서, 실기의 비중은 총점의 70%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 세부 전공 목록을 정확하게 반영하고 있으며, 추가적인 설명도 원본의 내용과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전공의 구성과 관련된 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 세부 전공에 대한 설명이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적인 흐름이 잘 유지되어 있으며, 각 전공에 대한 설명이 자연스럽게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8642565664948121</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과 중 라이프융합학부는 세부 전공으로 다음과 같이 구성되어 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 세 가지 전공은 학생들이 다양한 삶의 영역에서 창업과 비즈니스, 문화 활동에 대한 이해를 키울 수 있도록 설계되었습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과를 잘못 언급하고 있습니다. '디자인조형학과'는 가군에 포함되지 않으며, '레저스포츠학과'가 누락되었습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, '나군'이라는 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 '가군'에 대한 내용인데, 생성된 응답은 '나군'으로 잘못 언급하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 일부 관련 정보를 포함하고 있지만, 주제와 관련 없는 '디자인조형학과'에 대한 언급이 포함되어 있어 전체적으로 관련성이 낮습니다. 원본 텍스트의 핵심 주제를 제대로 다루지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 잘 구성되어 있지만, 주제와 관련 없는 정보가 포함되어 있어 일관된 흐름이 부족합니다. 따라서 일관성 점수가 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실적으로 부정확합니다. '디자인조형학과'는 원본 텍스트에서 언급되지 않았으며, '레저스포츠학과'가 누락되었습니다. 이로 인해 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 매우 낮은 점수를 받았습니다. 전반적으로 품질이 저하된 응답입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 일부 의미적으로 적절한 부분이 있지만, 주제와 관련 없는 정보가 포함되어 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 정확성과 관련성 문제로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.624077528172069</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군에서 실기고사에 참여해야 하는 학과들은 다음과 같습니다:
+1. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+2. 체육학과
+이 두 학과는 나군에서 실기고사를 진행합니다. 기타 학과들은 서류평가 또는 다른 전형방법을 통해 평가받습니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 지원 가능한 학과 목록이 일치합니다. 추가적으로 지원 자격 및 평가 기준에 대한 안내도 포함되어 있어 사실적 정확성이 높습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않습니다. 모든 정보가 원본과 일치하여 일관성이 뛰어납니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기/실적 위주 전형에 대한 정보를 직접적으로 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적인 흐름이 잘 유지되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 따라서 일관된 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다. 정확성이 매우 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다. 전반적으로 높은 품질을 유지하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다. 의미적으로도 적합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 따라서 이해 가능성이 매우 높습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.731914206630637</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과
+이러한 학과들은 실기/실적 위주 전형을 통해 지원할 수 있습니다. 각 학과별로 구체적인 지원 자격 및 평가 기준은 공지된 정보를 참고하시거나, 대학의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)에서 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 제공되는 전공 목록도 일치합니다. "2024학년도"라는 추가 정보는 사실에 부합합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전공에 대한 정보가 일치합니다. 추가된 내용도 원본의 정보와 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 전공에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.7990391687264765</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 라이프융합학부는 신설되었으며, 다음과 같은 전공을 제공합니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학
+- 라이프생활문화학
+따라서, 2024년도에 라이프융합학부에서는 이 세 가지 전공 중 하나를 선택할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 "마이스터고"에 대한 언급이 포함되어 있어 혼란을 줄 수 있으며, 농어촌학생전형에 대한 정보가 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 특수목적고등학교 학생이 일반학생전형으로 지원할 수 있다는 점에서 일관성을 보이지만, 농어촌학생전형에 대한 정보가 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 관련된 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 내용이 중복되거나 불필요하게 길어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 사실적으로 정확하지만, 농어촌학생전형에 대한 정보가 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 정보의 누락이 아쉬운 점입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 잘 맞습니다. 그러나 마이스터고에 대한 언급이 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.7758930199844488</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교 일반학생전형으로 지원이 가능합니다. 
+특수목적고등학교에 속하는 경우에도 다음과 같이 지원이 가능합니다:
+- 과학고, 국제고, 외국어고
+- 예술고, 체육고 
+- 마이스터고
+따라서, 특수목적고등학교 학생이라면 동의대학교 일반학생전형으로 지원하실 수 있습니다. 다만, 지원 가능한 모집단위는 위에서 나열한 것들에 한정됩니다.
+더 자세한 내용은 공식 홈페이지를 참조하시거나 문의해보시는 것이 좋겠습니다: https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과라고 명시되어 있지만, 생성된 응답에서는 환경공학과와 화학공학과가 언급되고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 모순되는 정보를 제공합니다. 원본에서 언급된 학과와 모집 인원과는 전혀 다른 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 질문의 맥락과 관련이 있지만, 원본 텍스트의 핵심 정보를 잘못 전달하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 질문의 주제와 관련이 있지만, 잘못된 정보를 제공하여 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 부족으로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.71027464061902</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 환경공학과 5명입니다. 그러나 전체적으로 보자면, "건축공학과(5년제)"와 "화학공학과 53명"이 각각 많은 인원을 모집하고 있습니다. 하지만 질문의 맥락에서 가장 많이 모집하는 학과는 "화학공학과"로 판단됩니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 학생부교과 농어촌학생전형에 대한 지원 자격을 잘못 설명하고 있습니다. 원문에서는 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없다고 명시하고 있지만, 생성된 응답에서는 특정 특수목적고 출신자도 지원할 수 있다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 지원할 수 없는 특수목적고의 종류를 명확히 하고 있지만, 생성된 응답에서는 지원 가능성을 언급하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하지 않고, 지원 자격에 대한 잘못된 정보를 포함하고 있습니다. 원문과 관련된 정보는 포함되어 있으나, 잘못된 내용으로 인해 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어가 아닌 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나열되어 있지만, 원문과의 연결이 부족하여 일관된 흐름이 없습니다. 원문과의 관계가 명확하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 지원 자격에 대한 잘못된 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 관계가 부정확하고 일관성이 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 보통 수준입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.4929269675785951</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，东国大学的"나군 학생부교과(농어촌학생전형)"这一招生类型，支持以下高中类型的申请资格：
+- 일반고 (普通高中): 可以申请
+- 자율고 (自治高中): 可以申请
+- 특수목적고 (特殊目的高中):
+  - 科学高中、国际高中、外语高中: 可以申请
+  - 艺术高中、体育高中: 可以申请
+  - 技工高中: 可以申请
+因此，如果你是特殊目的高中（如科学高中、艺术高中等）的学生，你是可以申请东国大学的"나군 학생부교과(농어촌학생전형)"这一招生类型的。</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 제공되지 않는다는 사실을 왜곡하고 있습니다. 응답은 평균 성적을 찾을 수 있는 방법을 제시하고 있지만, 원본 텍스트에서는 그러한 정보가 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않습니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 평균 성적을 찾을 수 있는 방법을 제시하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 정보가 없다는 점을 간과하고 있습니다. 그러나 평균 성적을 찾는 방법을 제시함으로써 어느 정도 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 정보가 없다는 점을 명확히 하지 않아서 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 평균 성적에 대한 정보가 없다는 점을 간과하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락을 완전히 반영하지 못하고 있습니다. 정보가 없다는 점을 명확히 하지 않아 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다. 그러나 문장 구조는 명확합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.7634203475954656</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 제공된 데이터로 직접 확인할 수 없습니다. 해당 정보는 "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합" 또는 "수능 4개 영역 등급" 등의 항목에서 찾아볼 수 있습니다. 
+만약 특정 단과대학의 특정 모집단위에 대한 평균 성적을 알고 싶다면, 해당 정보를 찾아보시거나, 필요하다면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 정보를 언급하고 있지만, 원본 텍스트는 소프트웨어공학부에 대한 내용을 다루고 있습니다. 따라서, 정보의 정확성이 떨어지며, 일부 사실이 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부분 일치하지만, 소프트웨어융합학과와 소프트웨어공학부의 혼동이 있어 일관성이 부족합니다. 두 학과의 정보가 혼합되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 소프트웨어융합학과에 대한 언급이 원본의 주제와 다소 벗어나 있습니다. 그러나 정보 요청에 대한 대안 제시가 포함되어 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 소프트웨어융합학과와 소프트웨어공학부의 혼동으로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하지 않으며, 소프트웨어융합학과에 대한 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 소프트웨어융합학과에 대한 언급이 원본의 맥락과 맞지 않아 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달됩니다. 그러나 일부 혼동 요소가 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.6839583252083994</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어융합학과에 대한 최초 합격자 평균 성적 정보가 제공된 데이터 내에서는 확인할 수 없습니다. 소프트웨어융합학과의 경우, 제공된 데이터에서 정원 내 모집 인원이 표시되어 있지 않으며, 그에 따른 최초 합격자들의 평균 성적도 명시되어 있지 않습니다.
+만약 더 자세한 정보를 원하시면, 해당 대학의 입학처 웹사이트나 공식 안내서를 확인해보시는 것이 좋을 것 같습니다. 또한, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 추가적인 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 최초 합격자 등록 날짜와 관련된 정보가 추가되어 있어 원본 텍스트와 다소 차이가 있습니다. 또한, 등록장소에 대한 정보가 포함되어 있지만, 원본 텍스트에는 그러한 세부사항이 없습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 정보로 인해 일관성이 떨어집니다. 특히, 최초 합격자 등록에 대한 내용이 원본 텍스트에 없기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정과 관련된 정보를 제공하고 있지만, 추가된 등록 정보가 원본 텍스트와는 관련이 적어 다소 주제에서 벗어난 느낌을 줍니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 잘 구성되어 있으며, 각 항목이 논리적으로 연결되어 있습니다. 그러나 원본 텍스트와의 차이로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 없는 정보가 추가되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트와의 차이로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트와의 차이로 인해 일부 내용이 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8262838035502494</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>2024년 합격자 발표 일정은 다음과 같습니다:
+1. 최초 합격자 발표 및 등록:
+   - 날짜: 2024. 02. 02.(금) 14:00
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+2. 최초 합격자 등록:
+   - 날짜: 2024. 02. 07.(수) ~ 02. 13.(화)
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+3. 충원 합격자 발표 및 등록:
+   - 1차 발표: 2024. 02. 14.(수) 09:00
+   - 1차 등록: 2024. 02. 14.(수) 09:00~16:00
+   - 2차 발표: 2024. 02. 15.(목) 09:00
+   - 2차 등록: 2024. 02. 15.(목) 09:00~16:00
+4. 충원 합격자 3차 이후 발표 및 등록:
+   - 날짜: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+이상의 일정을 참고하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 면접고사 일정에 대한 정확한 정보를 제공하지 않고, 일반적인 절차에 대한 설명으로 대체하고 있습니다. 원본 텍스트에서 명시된 날짜(2024. 01. 20.)를 언급하지 않아 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 면접 일정에 대한 구체적인 날짜를 제공하지 않고 일반적인 정보를 제공합니다. 이는 원본 텍스트와의 일관성을 해칩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 면접고사 일정에 대한 질문에 대한 답변을 시도하지만, 원본 텍스트의 구체적인 날짜를 제공하지 않아 관련성이 떨어집니다. 그러나 면접 일정에 대한 일반적인 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해져 coherence가 다소 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 면접 일정에 대한 구체적인 날짜를 누락하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 면접 일정에 대한 구체적인 정보가 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 원본 텍스트와의 연결이 약해져 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.3815522438504311</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접고사의 일정은 대체로 입학사정관이 평가를 진행하기 때문에 정확한 날짜와 시간을 알려드리기 어렵습니다. 일반적으로 면접일정은 서류평가 결과에 따라 결정되며, 해당 학교의 공지사항이나 입학처 웹사이트에서 확인하실 수 있습니다.
+만약 자세한 일정이 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참고해 주시기 바랍니다. 이 사이트에서는 최신 정보와 일정을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "한의예과의 최저학력 기준이 없습니다"라는 원문 내용을 왜곡하고 있습니다. "일반적으로 고등학교 졸업 자격이 필요하다"는 정보는 원문에 명시되어 있지 않으며, 이는 잘못된 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문은 최저학력 기준이 없다고 명시하고 있지만, 생성된 응답은 고등학교 졸업 자격이 필요하다고 언급하여 일관성이 없습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있으나, 원문에서 언급된 내용과는 다소 차이가 있습니다. 그러나 추가적인 정보 제공은 유용할 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원문과의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에 대한 정확성이 떨어집니다. 원문에서 최저학력 기준이 없다고 명시했음에도 불구하고, 고등학교 졸업 자격이 필요하다고 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답의 품질이 낮습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 원문과의 불일치가 두드러집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 의미를 전달하려고 하지만, 잘못된 정보로 인해 의미가 왜곡되었습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.6038018774060565</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력 기준에 대한 명시는 없습니다. 한의예과의 경우, 일반적으로 고등학교 졸업 자격이 필요하지만, 정확한 최저학력 기준은 해당 대학이나 입학처 웹사이트를 참조해야 합니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크로 접속하여 확인해 보시거나, 직접 동의대학교 입학처에 문의하시면 정확한 최저학력 기준을 알 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 점을 반복적으로 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 최저학력 기준에 대한 정보를 명확하게 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5978108257346552</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 정시전형으로 지원할 때 수능 최저학력 기준은 없습니다. 각 학과별로 모집인원, 지원인원, 경쟁률 등이 다르지만, 수능최저기준은 없음을 확인하였습니다.
+따라서 정시전형에 지원하려면 해당 학과의 모집요강을 자세히 확인하여 지원 가능 여부를 판단해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정의 일부를 정확하게 반영하고 있지만, 1차 충원합격자 발표 날짜를 명시하지 않고 있습니다. 따라서 일부 정보가 누락되어 있어 4점을 부여합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 2차 충원합격자 발표 날짜와 시간을 언급하지 않고, 1차 발표에 대한 정보도 누락되어 있습니다. 이로 인해 원본 텍스트와의 일관성이 떨어져 3점을 부여합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 질문에 직접적으로 관련된 내용을 포함하고 있어 매우 관련성이 높습니다. 따라서 5점을 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 있어 4점을 부여합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 발표 일정에 대한 정보를 명확하게 전달하고 있습니다. 그러나 일부 정보의 누락으로 인해 완전한 일관성은 부족하여 4점을 부여합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 발표 일정의 일부를 정확하게 반영하고 있지만, 1차 발표에 대한 정보가 누락되어 있어 정확성에서 약간의 부족함이 있습니다. 따라서 4점을 부여합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되었지만, 정보의 누락으로 인해 완전한 점수를 주기에는 부족하여 4점을 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 누락되어 있어 완전한 적합성은 부족합니다. 따라서 4점을 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 정보의 일부 누락으로 인해 완전한 이해를 방해할 수 있어 4점을 부여합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.7925021460399767</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 충원합격자 발표가 진행됩니다. 첫 번째 충원합격자는 9시에 발표되며, 등록은 동일날짜의 9시부터 16시까지 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 추가합격자 발표일에 대한 정보를 제공하지 않으며, 원본 텍스트에 명시된 충원합격자 발표 일정과 관련된 내용을 잘못 해석하고 있습니다. 원본 텍스트에는 구체적인 발표 일정이 명시되어 있지만, 생성된 응답은 이를 무시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 구체적인 날짜를 제시하고 있지만, 생성된 응답은 그러한 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 낮습니다. 원본 텍스트의 발표 일정에 대한 정보가 포함되어야 했습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 일부 오류가 있으며, 문장 구조가 매끄럽지 않습니다. 특히, 중간에 다른 언어가 섞여 있어 읽기 어려운 부분이 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 논리적인 흐름이 부족합니다. 원본 텍스트의 정보와 관련된 내용을 일관되게 연결하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트에 명시된 발표 일정이 있음에도 불구하고 이를 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 특히, 발표 일정에 대한 정보가 누락되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 일부 부분에서 이해하기 어려운 요소가 있지만, 전반적으로는 어느 정도 이해할 수 있는 내용입니다. 그러나 다른 언어가 섞여 있어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.3850206426467555</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 추가합격자 발표일은 명시되어 있지 않습니다. 추가합격자 발표일은 일반적으로 정시모집과 별도로 진행되며, 대학의 입학사정관委员会，请您用韩语回答。根据提供的内容，没有提到追加录取结果公布日期的信息。追加录取结果公布日期通常会在单独的招生过程中进行，具体日期请参考学校的相关通知。
+如果您需要更准确的信息，建议访问以下网站获取最新详情：“https://ipsi.deu.ac.kr/main.do”。</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가 모집이 명시되어 있지 않다고 주장하지만, 원본 텍스트에서는 추가 합격자를 선발할 것이라고 명확히 언급하고 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충합니다. 원본에서는 추가 모집이 이루어진다고 명시하고 있지만, 생성된 응답은 추가 모집이 없다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본의 핵심 내용을 잘 반영하지 못하고 있습니다. 추가 모집에 대한 정보가 필요하다는 점은 관련성이 있지만, 잘못된 정보로 인해 점수가 낮아졌습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 일관성이 떨어집니다. 원본의 내용을 반영하지 않기 때문에 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본에서는 추가 모집이 이루어진다고 명시하고 있으나, 생성된 응답은 이를 부정하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와 일치하지 않으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지 않지만, 특정 학과에 대한 추가 모집 정보를 찾으라는 제안은 적절합니다. 그러나 전체적인 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.507240869994617</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보를 바탕으로, 추가 모집이 명시되어 있지 않습니다. 각 단과대학 및 계열별로 정해진 모집인원이 있으며, 이는 변경되지 않았습니다.
+만약 특정 학과에 대한 추가 모집 정보가 필요하다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하여 최신 정보를 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 평생학습자전형에 대한 정보의 일부를 포함하고 있지만, 지원 자격 및 모집 단위에 대한 정보가 원본 텍스트와 일치하지 않으며, 잘못된 세부사항이 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 여러 부분에서 일치하지 않으며, 특히 지원 자격과 모집 단위에 대한 정보가 상충합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있지만, 원본 텍스트의 특정 세부사항을 놓치고 있습니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전반적으로 일관된 구조를 가지고 있지만, 정보의 흐름이 원본 텍스트와 다르게 전개되어 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 여러 부분에서 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 일부 차원에서 양호하지만, 사실성과 일관성에서 큰 문제를 보이고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 일부 세부사항이 부정확하여 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 정보가 혼란스러울 수 있어 완전한 명확성을 제공하지는 않습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.6033020267534868</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 다양한 학력을 인정받을 수 있는 전형입니다. 주요 내용은 다음과 같습니다:
+1. **지원 자격**: 
+   - 산업체 적용 범위는 국가·지방자치단체 및 공공단체, 근로기준법에 따라 상시근로자 5인 이상 사업체, 4대 보험 중 1개 이상 가입 사업체입니다. 1차 산업 종사자는 국가·지방자치단체가 발급하는 공적증명서를 통해 인정받을 수 있습니다.
+2. **모집 단과대학 및 계열**: 
+   - 상경대학의 인문사회계열, 미래융합대학의 인문사회계열, 공과대학의 공학계열 등이 모집 대상입니다.
+3. **최대 선발 가능인원**:
+   - 각 모집단위별로 최대 선발 가능한 인원이 제한되어 있습니다 (예: 교직 관련 학과는 6명 이내, 보건의료정보관리교육인증은 1명 이내 등).
+4. **제출 서류**: 
+   - 고교 졸업(예정)자, 검정고시 출신자, 외국고교 졸업(예정)자의 경우 각각 학교생활기록부, 검정고시 합격증서 및 성적증명서, 공증받은 외국고교 졸업증명서와 성적증명서를 제출해야 합니다.
+5. **전형 요소 반영 비율**: 
+   - 서류 평가 70%, 면접 평가 30%로 구성되어 있습니다.
+6. **면접평가 영역 및 배점**:
+   - 학업역량 (문제해결능력)과 전공적합성 (진로정보 탐색능력)을 평가하며, 각 영역별로 1등급부터 5등급까지의 점수를 부여합니다.
+7. **동점자 처리 기준**:
+   - 동점자가 발생할 경우 면접고사 성적 상위자, 서류평가 공동체역량 영역 성적 상위자, 서류평가 전공적합성 영역 성적 상위자를 우선적으로 선발합니다.
+이러한 내용을 참고하시면 평생학습자전형에 대한 이해가 향상될 것입니다. 더 궁금하신 점이 있으시다면 추가로 질문해주세요!</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌, 산업체 적용 범위와 재직기간 산정에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 어느 정도 구조가 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 전혀 맞지 않으며, 주제와도 관련이 없습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 주제가 다르기 때문에 전체적으로는 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.66047582649944</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가 또는 지방자치단체 및 공공단체 (소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+2. 재직기간 산정:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙 서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+위와 같은 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사에 대한 구체적인 정보를 제공하지만, 원본 텍스트에서 언급된 대기실 및 입실시간에 대한 정보는 포함되어 있지 않으며, 실기고사 종목에 대한 정보는 원본 텍스트와 관련이 없습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 대기실 및 입실시간에 대한 정보만을 제공하는 반면, 생성된 응답은 레저스포츠학과의 실기고사 종목에 대한 정보를 추가하고 있습니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 주요 내용인 대기실 및 입실시간과는 관련이 적습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 다소 떨어집니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 원본 텍스트의 핵심 정보를 누락하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성, 일관성, 정확성에서 문제가 있습니다. 따라서 다차원 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 정보가 포함되어 있습니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확하게 전달됩니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.3872341437296029</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 해당 모집단위에 따라 다르게 진행됩니다. 예를 들어, 레저스포츠학과의 경우 제자리 멀리뛰기와 Z-런이라는 두 가지 종목을 실시합니다.
+레저스포츠학과의 실기고사 관련 정보는 다음과 같습니다:
+- **모집단위**: 레저스포츠학과
+- **실기종목**:
+  - 제자리 멀리뛰기 (350점, 35%)
+  - Z-런 (350점, 35%)
+따라서 실기고사는 해당 모집단위에서 지정된 장소로 가셔야 합니다. 각 모집단위별로 실시되는 종목과 점수 배점을 확인하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 체육학과의 실기고사에 대한 일반적인 설명을 제공하고 있습니다. 원본 텍스트의 핵심 정보인 입실시간과 대기실에 대한 내용이 누락되어 있으며, 제공된 정보와 관련이 적습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있습니다. 원본 텍스트는 특정 날짜와 시간에 대한 정보만을 제공하고 있지만, 생성된 응답은 여러 학과의 실기고사에 대한 설명을 추가하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 실기고사 대기실 및 입실시간에 대한 정보에 집중하고 있지만, 생성된 응답은 다른 학과의 실기고사에 대한 설명으로 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 각 주제 간의 연결이 명확하지 않아 일관성이 떨어집니다. 정보가 분산되어 있어 전체적인 흐름이 매끄럽지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있습니다. 원본 텍스트의 핵심 정보가 누락되어 있으며, 제공된 정보가 정확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성, 정확성 모두에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 주제와 관련된 정보가 부족하여 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 주제가 분산되어 있어 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.3773655385741174</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보를 바탕으로, 체육학과의 실기고사는 특정 학과에 따라 다르게 진행됩니다. 그러나 일반적으로 레저스포츠학과와 태권도학과의 경우 실기고사가 진행됩니다.
+레저스포츠학과의 경우:
+- 제자리 멀리뛰기
+- Z-런 종목이 실기고사로 진행되며, 각각 350점(35%)씩 배점을 받습니다.
+태권도학과의 경우:
+- 품새, 시범, 겨루기 중에서 선택하여 실시하며, 기초실기와 응용실기가 포함된 종목별 배점을 받습니다.
+따라서 체육학과에 입학하려는 학생은 해당 학과의 실기고사 관련 정보를 확인해야 합니다. 만약 특정 학과의 실기고사가 명확하지 않다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하거나 대학 입학 사정관에게 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 사실을 잘못 전달하고 있습니다. 원문에서는 전화로 개별 연락을 하지 않는다고 명시하고 있지만, 생성된 응답에서는 전화 통보를 받을 수 있다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 전화 통보가 이루어지지 않는다고 명시한 반면, 생성된 응답에서는 전화 통보가 이루어진다고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 질문을 포함하고 있지만, 원문에서 제공하는 정보와는 다소 동떨어진 내용이 포함되어 있습니다. 원문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 일부 문장은 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 질문을 포함하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 원문과의 논리적 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 사실적으로 부정확한 내용을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 관계가 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족하며, 질문의 맥락이 원문과 잘 연결되지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 이해할 수 있는 내용이지만, 원문과의 관계가 불명확하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6907011628668236</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원합격자 발표 후에는 개별 전화 통보를 받으실 수 있습니다. 하지만 모든 합격자는 먼저 홈페이지에서 개별 조회를 통해 결과를 확인하실 수 있으며, 고지서도 홈페이지에서 출력하거나 입학관리팀에서 받아볼 수 있습니다.
+具体的来说，公布补录合格名单后，会通过电话通知吗？如果没有电话通知，我应该怎么做呢？
+如果是这样的话，请告诉我如何在网站上查看结果以及在哪里领取通知书。</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 정확하게 반영하고 있지만, 원본 텍스트가 한국어로 작성된 반면, 생성된 응답은 중국어로 작성되어 있어 언어적 차이가 있습니다. 그러나 정보의 본질은 일치합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관성을 유지하고 있습니다. 수시모집 결과에 대한 정보가 포함되어 있지 않다는 점을 잘 전달하고 있으며, 추가적인 정보 제공 방법도 언급하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊습니다. 수시모집 결과에 대한 정보가 없다는 점을 명확히 하고, 필요한 경우 확인할 수 있는 방법을 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 원본 텍스트와 다른 언어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 언어적 차이로 인해 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 정보의 정확성은 높습니다. 그러나 언어적 차이로 인해 원본의 의미가 완전히 전달되지 않을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있습니다. 사실성, 일관성, 관련성, 정확성 모두 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있습니다. 그러나 언어적 차이로 인해 의미 전달이 완벽하지 않을 수 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다. 따라서 이해 가능성 점수는 다소 낮습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.7094106298240103</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>所提供的信息中并没有提到关于2023学年警察行政学系的自主招生结果。根据提供的上下文，主要描述了各个专业的招生类型、录取人数等信息，并没有包含具体的招生结果数据。
+如果您需要了解2023学年警察行政学系的具体招生结果，请访问以下网站以获取最新和详细的信息：
+https://ipsi.deu.ac.kr/main.do
+或者您可以直接联系学校招生办公室，他们能够提供最准确的招生结果信息。</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 정시 모집에서 수능을 필수로 요구하지 않는다고 주장하지만, 원문에서는 정시 모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실관계가 일치하지 않아 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충하는 내용을 포함하고 있습니다. 원문은 수능 응시가 필수라고 명시하고 있는데, 생성된 응답은 수능을 필수로 요구하지 않는다고 하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 명시된 핵심 질문에 대한 직접적인 답변이 부족합니다. 그러나 관련된 추가 정보를 제공하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전형에 대한 설명이 일관되게 이어집니다. 그러나 원문과의 연결이 약해 다소 떨어지는 점수를 부여합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 크게 다르며, 수능 응시가 필수라는 사실을 왜곡하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원문과 일치하지 않으며, 사실관계와 일관성이 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미와 다소 다르게 해석될 수 있는 부분이 있으며, 원문의 맥락을 벗어난 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.5174452287539746</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2023학년도와 2024학년도의 경우, 정시 모집에서는 수능을 필수로 요구하지 않습니다. 그러나 각 전형별로 수능 성적을 반영하는 경우가 있습니다.
+예를 들어:
+- **학생부종합 평가**는 수능 성적이 반영되지 않지만,
+- **실기/실적 위주전형**과 **조기취업형 계약학과 전형** 등에서는 수능 성적이 일부 반영될 수 있습니다. 
+따라서, 정시에 수능 응시하지 않아도 지원 가능하지만, 특정 전형에서는 수능 성적이 요구되거나 반영될 수 있으므로, 각 전형의 세부 조건을 확인해보시는 것이 좋습니다.
+더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 원래의 사실을 부정하고, 일반적으로 지원이 어렵다고 주장하고 있습니다. 이는 원본 텍스트와 상충하는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관성이 없습니다. 원본에서는 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 이를 반박하는 내용을 담고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 고등학교 졸업 후 정시 지원에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용과는 다소 다른 방향으로 나아가고 있습니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관성이 떨어질 수 있습니다. 특히, 원본 텍스트와의 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나면 정시 지원이 어렵다고 주장하고 있어, 원본 텍스트의 사실과 크게 다릅니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 두드러지며, 전반적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 의미와는 다소 다르게 해석되고 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.6598765871848437</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 고등학교 졸업한지 10년이 지났다면 일반적으로 정시 모집에 지원하기는 어려울 것입니다. 대다수의 대학은 고등학교 졸업 후 3년 이내에 입학을 원칙으로 하고 있습니다.
+하지만, 일부 특별전형이나 재직자 전형 등에서는 이러한 기준이 완화될 수 있으므로, "나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)"에 지원하는 것이 가능할 수 있습니다. 이 전형들은 재직 경력이나 성인 학습자의 특성을 고려하여 평가기준을 완화하고 있습니다.
+따라서, 정확한 답변을 위해서는 해당 대학의 공식 홈페이지 (https://ipsi. deu.ac.kr/main.do)를 참조하거나 입학처에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.8450189605813243</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집의 일정은 다음과 같습니다:
+1. **2024년 1월 2일 (화)**
+   - **모집인원 확정 공고** : 입학안내 홈페이지에서 공고가 발표됩니다.
+2. **2024년 1월 3일 (수) ~ 2024년 1월 6일 (토)**
+   - **원서접수(인터넷)** : 마감일은 18시까지입니다.
+     - 원서 접수 사이트는 [http://ipsi. deu. ac. kr](http://ipsi.deu.ac.kr) 또는 [http://www. uwayapply. com](http://www.uwayapply.com) 입니다.
+3. **2024년 1월 3일 (수) ~ 2024년 1월 12일 (금)**
+   - **서류 제출** : 마감일은 17시까지 도착해야 합니다.
+     - 서류 제출 대상과 방법에 대한 자세한 내용은 입학안내 홈페이지에서 확인할 수 있습니다.
+4. **2024년 1월 16일 (화)**
+   - **&lt;가&gt;군 실기고사** : 레저스포츠학과와 태권도학과에서 실시됩니다.
+     - 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **2024년 1월 17일 (수)**
+   - **&lt;나&gt;군 실기고사** : 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과에서 실시됩니다.
+     - 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+6. **2024년 2월 2일 (금) 14:00**
+   - **합격자 발표 및 등록금 납부** : 최초 합격자 발표가 이루어집니다.
+     - 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+7. **2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)**
+   - **합격자 발표 및 등록금 납부** : 최초 합격자 등록이 이루어집니다.
+     - 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+8. **2024년 2월 14일 (수) 09:00**
+   - **합격자 발표 및 등록금 납부** : 충원 합격자 1차 (인터넷) 발표가 이루어집니다.
+     - 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+9. **2024년 2월 15일 (목) 09:00 ~ 16:00**
+   - **합격자 발표 및 등록금 납부** : 충원 합격자 1차 (인터넷) 등록이 이루어집니다.
+     - 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+10. **2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지**
+    - **합격자 발표 및 등록금 납부** : 충원 합격자 3차 이후 (개별 전화 통보) 발표가 이루어집니다.
+      - 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+11. **개별 전화 통보 시 안내**
+    - **합격자 발표 및 등록금 납부** : 충원 합격자 3차 이후 (개별 전화 통보) 등록이 이루어집니다.
+      - 개별 전화 통보 시 안내가 이루어집니다.
+위와 같은 일정에 따라 동의대학교 정시 모집이 진행됩니다. 자세한 내용은 입학안내 홈페이지를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 주제를 완벽하게 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.892498176921356</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 홈페이지: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 날짜: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감일 18시까지
+   - 홈페이지: http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com
+3. **서류 제출**:
+   - 날짜: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감일 17시까지 도착
+   - 방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과
+   - 날짜: 2024년 1월 16일 (화)
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과
+   - 날짜: 2024년 1월 17일 (수)
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14:00
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행마감시간 내
+7. **충원 합격자 발표 및 등록**:
+   - 1차 충원 합격자 발표: 2024년 2월 14일 (수) 09:00
+   - 1차 충원 합격자 등록: 2024년 2월 14일 (수) 09:00 ~ 16:00
+8. **2차 충원 합격자 발표 및 등록**:
+   - 2차 충원 합격자 발표: 2024년 2월 15일 (목) 09:00
+   - 2차 충원 합격자 등록: 2024년 2월 15일 (목) 09:00 ~ 16:00
+9. **3차 이후 충원 합격자 발표 및 등록**:
+   - 3차 이후 충원 합격자 발표: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+   - 3차 이후 충원 합격자 등록: 개별 전화 통보 시 안내
+이 일정은 동의대학교 정시 모집에 대한 일반적인 일정이며, 각 단과대학 및 모집단위 별로 세부 일정이 다를 수 있으므로 공식 홈페이지에서 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 없다는 사실을 부정확하게 전달하고 있습니다. 응답에서는 수능 미응시자도 지원이 가능하다고 언급하고 있으며, 이는 원문과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명확히 언급하고 있지만, 응답에서는 수능 미응시자도 지원 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 질문에 대해 관련된 정보를 제공하려고 하지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 여러 전형에 대한 정보를 제공하지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 원문에서 제시된 사실과의 연결이 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 크게 다르며, 수능 미응시자가 지원할 수 있다는 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 원문과의 불일치가 두드러집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 응답의 의미는 원문과 다르게 해석될 수 있으며, 원문의 맥락과 맞지 않는 부분이 많습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 응답은 전반적으로 이해할 수 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 원문과의 불일치로 인해 명확한 이해가 어려워질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.7199804215392036</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교에서 수능 미응시자도 지원이 가능한 정시 모집 전형에 대한 명확한 정보가 없습니다. 그러나 일반적으로 일부 대학에서는 수능 미응시자도 지원 가능하며, 이 경우 해당 전형의 특징과 요구 사항을 확인해야 합니다.
+만약 동의대학교에서 수능 미응시자도 지원이 가능한 전형이 있다면, 다음과 같은 전형들을 참고할 수 있습니다:
+1. **학생부종합전형**: 일부 대학에서는 학생부 종합전형을 통해 수능 미응시자도 지원 가능합니다.
+2. **특기전형**: 특정 분야에서 뛰어난 실력이 있는 경우, 해당 전형을 통해 지원할 수 있습니다.
+따라서 동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형인지 확인하려면, 공식 홈페이지나 입학처에 문의하는 것이 가장 정확한 방법입니다. 
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 통해 동의대학교 공식 홈페이지를 방문하여 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전년도 전자공학과의 충원 합격 차수에 대한 구체적인 데이터가 없다고 언급하고 있지만, 원문에서는 전년도 전자공학과의 충원 합격이 36명까지 이루어졌다고 명시되어 있습니다. 따라서 사실관계에서 일부 누락이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 충원 합격 차수에 대한 정보가 없다고 하면서도 원문에서 제공된 36명이라는 구체적인 숫자를 무시하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 언급된 주제와 관련된 정보를 제공하고 있으며, 추가적인 정보도 포함되어 있어 관련성이 높습니다. 그러나 원문에서 명시된 구체적인 숫자에 대한 언급이 없어서 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원문과의 연결이 약간 부족하여 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 구체적인 사실(36명)을 누락하고 있으며, 이로 인해 정확성이 떨어집니다. 원문에 명시된 사실을 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점을 보이지만, 사실관계와 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으며, 맥락에 맞는 정보를 제공합니다. 그러나 구체적인 사실을 누락한 점은 아쉽습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 표현으로 작성되어 있어, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.738162096174559</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 전년도 전자공학과의 충원 합격 차수에 대한 구체적인 데이터가 없습니다. 전형요소 반영비율이나 모집인원, 사정 단계 등 관련 정보만이 포함되어 있습니다. 전년도 전자공학과의 충원 합격 차수를 확인하려면 대학 입학처 웹사이트나 공식 안내서를 참조하시거나 직접 문의하시는 것이 가장 정확할 것입니다. "https://ipsi.deu.ac.kr/main.do" 링크로 가보시면 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호를 명시적으로 언급하지 않고 있으며, 제공된 정보가 전화번호를 포함하지 않는다고 잘못 진술하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 명확하게 전화번호를 제공하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용인 전화번호에 대한 정보와 관련이 적습니다. 전화번호를 찾는 질문에 대한 직접적인 답변이 없기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 괜찮지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 전화번호에 대한 질문에 대한 답변으로서 논리적인 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호에 대한 정보가 없다고 잘못 진술하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 전화번호를 찾는 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.5848875375585141</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到东义大学入学处的电话号码。根据您提供的内容，似乎主要是一些关于招生计划、科目要求和其他相关信息的列表，并没有包含联系电话。如果您需要东义大学入学处的具体联系方式，请访问其官方网站 https://ipsi. deu. ac. kr/main. do ，通常学校官网会有联系信息或可以咨询的相关页面。</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘못 해석하고 있습니다. 원본에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주된다고 명시하고 있지만, 생성된 응답에서는 전화 통화가 되지 않는 경우에도 합격자로 인정된다고 잘못 언급하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 전화 연락이 두절되면 등록 포기자로 처리된다고 명시되어 있으나, 생성된 응답에서는 전화 통화가 되지 않더라도 합격자로 인정된다고 하여 서로 모순되는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 주제와의 관련성이 떨어집니다. 원본의 핵심 내용인 전화 연락의 중요성에 대한 언급이 부족하고, 잘못된 해석이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있으나, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 원본의 주제를 잘못 해석하여 일관된 흐름을 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 전화 통화가 되지 않는 경우에 대한 잘못된 정보가 포함되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트의 핵심 내용을 왜곡하고 있어 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 전달하고 있습니다. 전화 통화가 되지 않는 경우에 대한 잘못된 해석이 포함되어 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.55940009566737</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우에도 합격자로 인정됩니다. 그러나 이 경우에는 추가적인 안내를 위해 홈페이지에서 개별적으로 조회해야 합니다. 또한 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있으며, 등록장소는 학교 지정은행으로 진행합니다.
+따라서 전화 통화가 되지 않더라도 홈페이지를 통해 필요한 정보를 얻을 수 있습니다. 만약 문제가 발생하면 입학관리팀에 문의하여 해결책을 찾으시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 제출해야 할 서류의 주요 내용을 잘 반영하고 있으나, 일부 세부사항(예: 부모 사망 시 제출 서류, 이혼 시 제출 서류 등)이 누락되어 있어 완전한 정확성을 갖추지 못하고 있다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 원본에서 언급된 특정 조건이나 추가 서류에 대한 정보가 누락되어 있어 일관성이 떨어진다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 제출해야 할 서류에 대한 정보를 명확하게 제시하고 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색한 표현이 있을 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으나, 일부 세부사항이 누락되어 있어 완전한 정확성을 갖추지 못하고 있다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으나, 일부 세부사항의 누락으로 인해 완전한 점수를 받지 못했다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 세부사항이 누락되어 있어 의미 전달이 완전하지 않다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.6902511961111882</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 유형에 따라 다릅니다. 주요 서류들은 다음과 같습니다:
+1. **유형 6년 과정**
+   - 가족관계증명서 (1부)
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 (1부)
+   - 고등학교 학교생활기록부 (1부)
+2. **유형 12년 과정**
+   - 지원자 본인의 주민등록초본 (1부)
+   - 초등학교 학교생활기록부 (1부)
+   - 중학교 학교생활기록부 (1부)
+   - 고등학교 학교생활기록부 (1부)
+이 외에 추가로 제출해야 할 서류가 있을 수 있으므로, 정확한 요구사항은 해당 대학의 공식 웹사이트를 확인하시거나 문의하시는 것이 좋습니다. 또한, 서류 제출 시에는 원본을 제출하는 것을 권장하며, 원본 재발급이 불가능한 경우는 원본대조필을 요청할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 필요한 서류 목록을 정확하게 나열하고 있습니다. 그러나 "교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급"이라는 추가 정보는 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 그러나 추가된 발급 방법에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 불일치가 발생합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록이 명확하게 나열되어 있습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 추가된 발급 방법에 대한 정보는 원본에 포함되어 있지 않아 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8445902087181776</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 필요한 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+   - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이러한 서류를 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 명확히 반영하지 않고 있으며, 저소득 기회균등 전형의 선발 여부에 대한 불확실성을 언급하고 있습니다. 이는 원문과 상충하는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일관성이 부족합니다. 원문에서는 기회균등 전형이 존재하지 않는다고 명시하고 있지만, 생성된 응답은 그 전형의 선발 여부에 대한 불확실성을 제기하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문과 관련된 정보를 제공하고 있지만, 기회균등 전형의 존재 여부에 대한 명확한 답변을 제공하지 않아 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 다소 부족합니다. 기회균등 전형의 존재 여부에 대한 명확한 답변이 없고, 추가 정보를 요청하는 부분이 흐름을 방해합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공하는 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 기회균등 전형이 존재하지 않는다는 사실을 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 특히 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 기회균등 전형의 존재 여부에 대한 명확한 해답을 제공하지 않아 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 편이지만, 일부 문장이 복잡하게 구성되어 있어 명확한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.62764435208158</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 정시 모집에 있어서 특정 학생부종합전형(예: 농어촌학생전형, 평생학습자전형 등)이 아닌 일반적인 정시모집에서 저소득 기회균등 전형의 선발 여부에 대한 내용은 직접 확인할 수 없습니다. 
+추가 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해 보시는 것이 좋을 것 같습니다. 해당 사이트에서 최신 정시모집 전형 및 선발 요건에 대한 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 최저등급에서 사탐 2 과목의 평균산출에 대한 정보가 잘못 해석되었습니다. 원본 텍스트에서는 절사 여부에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 절사 처리가 없다고 단정짓고 있습니다. 이는 원본의 내용을 왜곡한 것입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공합니다. 원본에서는 절사 여부에 대한 정보가 없다고 하였으나, 생성된 응답은 절사 처리가 없다고 주장하여 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 수능 최저등급과 관련된 질문에 대해 답변하고 있으므로 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 절사 여부에 대한 불확실성을 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본의 핵심 정보를 잘못 해석한 점에서 약간의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히 절사 여부에 대한 잘못된 해석이 문제입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 다차원적 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본의 맥락을 잘못 해석하여 의미가 왜곡된 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본의 핵심 정보를 잘못 해석한 점에서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6857843044822108</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급이 나오더라도 절대적으로 2.5 등급으로 평균산출을 합니다. 수능 최저등급에서 사탐 2 과목의 평균산출은 그대로 사용하므로, 2.5 등급이 나와도 2.5로 계산합니다.
+만약 국어, 수학, 영어 등 다른 영역에서도 비슷한 점수가 나오면, 전체적으로 평균을 내는 과정에서 2.5가 그대로 반영됩니다. 따라서 2.5등급은 2.5로 사용되며, 절사 등의 처리는 없습니다.
+만약 자세한 내용이 필요하시다면, 해당 대학의 입학처 웹사이트나 연락처를 통해 확인하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 를 참고해 보세요.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 발표 일정과 방식에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 발표 차수와 일정에 대한 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.8354882008502905</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>2024년 정시 충원 합격자 발표는 총 3차로 이루어집니다. 
+1차 발표 일정은 2024년 2월 14일(수) 오전 9시부터입니다.
+2차 발표 일정은 2024년 2월 15일(목) 오전 9시부터입니다.
+3차 이후 발표는 2024년 2월 15일 오후 7시부터 2024년 2월 20일 오후 6시까지 개별 전화 통보를 통해 이루어집니다.
+따라서 정시 충원 합격자 발표는 총 3차로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 e-비즈니스학과의 수능 성적 기준에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 평균 점수와 비교할 때 구체적인 수치가 부족합니다. 또한, 수능 성적이 4.6이라는 점수에 대한 해석이 다소 다르게 나타나고 있어 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 수능 성적의 해석과 관련하여 다소 상충하는 정보가 포함되어 있습니다. 예를 들어, 수능 성적이 4.6이라는 점수에 대한 해석이 원본 텍스트와 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 e-비즈니스학과의 수능 성적 기준에 대한 질문에 대해 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 특정 세부사항을 충분히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 수능 성적에 대한 정보를 제공하지만, 원본 텍스트의 평균 점수와 비교할 때 정확성이 떨어집니다. 특히, 수능 성적의 해석이 원본과 다르게 나타나고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 원본 텍스트의 특정 세부사항을 충분히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공합니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.5994208949693018</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시 전형에 대해 e비즈니스학과의 수능 성적 기준을 확인해보겠습니다.
+e비즈니스학과는 "다군(일반학생전형)"으로 모집되며, 이 전형의 수능 반영 영역 및 잔영 비율은 다음과 같습니다:
+- 국어: 25%
+- 수학 (미적분 또는 기하): 25%
+- 영어: 25%
+- 탐구 (사회탐구 또는 과학탐구 - 2개 과목 합): 25%
+수능 성적이 4.6이면, 이는 수능 등급 중 3등급에 해당합니다. 동의대학교의 수능 영어영역 등급에 따른 점수 변환표를 보면, 3등급은 131점입니다.
+따라서 e비즈니스학과의 수능 성적이 4.6이면, 이는 131점으로 변환됩니다. 하지만 정시 전형의 최저 기준을 확인해야 합니다. 현재 제공된 정보에서는 각 모집단위별 수능 최저기준이 명시되어 있지 않으므로, 해당 학과의 정시 전형에 대한 최저 기준 점수를 확인해야 합니다.
+따라서 e비즈니스학과 수능 성적이 4.6이면, 추가 합격 가능성은 모집단위별로 달라질 수 있으며, 정확한 판단을 위해서는 해당 학과의 정시 전형에 대한 최저 기준 점수를 확인해야 합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 직접 입학처로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 e비즈니스학과의 최초합격자들의 수능 4개 영역 등급 평균을 5.21로 제시하고 있으나, 원본 텍스트에서는 수능 4개 영역 등급 평균이 4.53이라고 명시되어 있어 사실과 다릅니다. 또한, 정시 등급이 5.3인 경우 합격 가능성이 높다고 주장하지만, 원본 텍스트에서는 합격하기 어려울 수 있다고 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 정시 등급이 5.3일 경우 합격이 어려울 수 있다고 명시하고 있지만, 생성된 응답은 합격 가능성이 높다고 주장하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 결론을 내리고 있어 일부 관련성이 떨어집니다. 그러나 전반적으로 e비즈니스학과의 합격 가능성에 대한 논의는 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 특히, 수능 4개 영역 등급 평균에 대한 정보가 틀립니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 주제에 대해 적절하게 논의하고 있으나, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6939481907189455</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 최초합격자들의 수능 4개 영역 등급 평균은 5.21입니다 (표준 편차는 0.33). 이 정보를 바탕으로, 정시 등급이 5.3인 경우 e비즈니스학과에 최초 합격 가능성은 높아 보입니다.
+하지만, 최종 결정을 내리기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **수능 4개 영역의 표준 변환 점수 합 평균**: e비즈니스학과의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균은 395.63입니다 (표준 편차는 12.03). 정시 등급이 5.3인 경우, 이 점수를 수능 4개 영역의 등급으로 변환한 후 e비즈니스학과의 평균을 넘는지 확인해야 합니다.
+2. **경쟁률**: e비즈니스학과의 경쟁률은 지원 인원에 따라 다르지만, 일반적으로 높은 경쟁률을 보입니다. 따라서, 정시 등급이 5.3인 경우에도 충분한 점수를 가지고 있어야 합니다.
+3. **개별 지원자의 성적 분포**: 수능 점수와 등급의 변환은 개인마다 다르므로, 특정 지원자가 e비즈니스학과에 최초 합격할 확률을 정확히 예측하기는 어렵습니다.
+따라서, 정시 등급이 5.3인 경우 e비즈니스학과에 최초 합격 가능성은 높아 보입니다만, 최종 결정을 내리기 위해서는 더 많은 정보와 분석이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 예비 38번의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 명시된 "예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다"라는 사실을 무시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주장을 반박하는 내용을 포함하고 있어 일관성이 부족합니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명확히 언급하고 있지만, 생성된 응답은 이를 부정하는 방향으로 나아갑니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 예비 합격 가능성에 대한 질문에 대해 다양한 전형 요소를 고려해야 한다고 설명하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 예비 38번의 합격 가능성에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 전형 요소에 대한 설명이 잘 연결되어 있으며, 논리적인 흐름을 유지하고 있습니다. 그러나 원본 텍스트와의 연결이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 예비 38번의 합격 가능성에 대한 명확한 정보를 제공하지 않고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서의 품질이 혼합되어 있습니다. 일부는 잘 설명되었지만, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질 점수는 중간 정도입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 다르게 해석되고 있으며, 예비 38번의 합격 가능성에 대한 질문에 대한 적절한 답변이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 연결이 약해져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.6133845237499126</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 예비합격 여부를 판단하기 어렵습니다. 전형요소 반영 비율과 지원 자격 등에 따라 합격 기준이 다릅니다.
+특히, e비즈니스학전공은 "다군 수능(일반학생전형)" 또는 "나군 실기/실적 위주"로 모집되는 전형이 있을 수 있습니다. 따라서:
+1. **수능 위주 전형**의 경우:
+   - 학생부 교과, 출결, 서류, 면접, 실기, 수능 등 다양한 요소가 반영됩니다.
+   - 예비합격 가능성은 수능 점수와 학업태도 등을 고려해야 합니다.
+2. **실기/실적 위주 전형**의 경우:
+   - 실기 성과와 서류 평가가 중요합니다.
+   - 예비합격 가능성은 실기 성과와 지원 자격을 확인해야 합니다.
+3. **학생부교과 전형**의 경우:
+   - 학생부 교과성적, 출결 등이 주요 요소입니다.
+   - 예비합격 가능성은 학생부 교과성적을 중심으로 판단해야 합니다.
+따라서, 이정도면 예비합격 가능할까요?는 다음과 같은 정보가 필요합니다:
+- **수능 점수** (혹은 실기 성과)
+- **학생부 교과성적**
+- **출결 및 서류 평가**
+이런 정보를 바탕으로 전형요소 반영 비율을 고려하여 예비합격 가능성 판단이 가능합니다. 더 자세한 정보나 지원 자격에 대한 확인이 필요하다면, 해당 대학의 입학처 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 참조하거나 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 성적에 대한 정보를 제공하지만, "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 309.60"이라는 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 잘못된 정보일 수 있습니다. 따라서 일부 사실이 정확하지 않거나 원본과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 평균 성적에 대한 정보가 다르기 때문에 일관성이 떨어집니다. 원본 텍스트는 영어 등급 평균과 수능 4개 영역 등급 평균을 언급하고 있지만, 생성된 응답은 다른 기준을 사용하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 간호학과의 합격 가능성에 대한 정보를 포함하고 있습니다. 그러나 원본 텍스트의 특정 세부사항을 다루지 않기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 서로 연결되어 있습니다. 그러나 평균 성적에 대한 정보가 원본과 다르기 때문에 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 성적에 대한 잘못된 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 평균적이며, 사실성과 일관성에서 문제가 있습니다. 그러나 관련성과 유창성은 양호합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 세부사항에서 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 복잡한 문장은 이해를 어렵게 할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.6626456286661166</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 최초합격자 성적 평균을 살펴보겠습니다.
+간호학과는 다음과 같은 성적을 요구받았습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 309.60
+현재 제시된 성적은 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 3.44입니다.
+간호학과의 평균 점수가 309.60이고, 제시된 성적이 3.44이므로, 현재의 성적은 간호학과에 충분히 경쟁력이 있는 것으로 보이지 않습니다.
+하지만, 최종 합격 가능성은 여러 요소에 따라 달라질 수 있습니다:
+1. 지원 인원: 지원 인원이 많을수록 경쟁률이 높아집니다.
+2. 후보 순위: 충원 합격자 외에도 후보 순위가 중요합니다.
+따라서, 현재의 성적만으로는 간호학과에 정시로 합격하기 어렵다고 판단됩니다. 그러나 지원 인원이 적거나 후보 순위가 높다면 합격 가능성은 있습니다.
+추천되는 조치:
+1. 다른 모집단위를 고려해 보세요.
+2. 추가적으로 수능을 응시하여 성적을 향상시키는 것을 고려해 보세요.
+3. 실기고사나 기타 전형 요소를 활용할 수 있는 전형을 찾아보세요.
+더 자세한 정보를 얻으시려면, 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 4개 영역 등급의 평균을 5.21로 제시하고 있으며, 이는 원본 텍스트의 평균 등급 3.37과 상충합니다. 또한, 현재 성적이 2.52인 경우 평균보다 낮다고 언급하고 있는데, 원본 텍스트에서는 2.52가 평균보다 높은 성적이라고 명시하고 있습니다. 이러한 사실의 불일치는 응답의 사실성을 크게 저하시킵니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 여러 가지 점에서 일관성이 없습니다. 원본 텍스트는 2.52가 평균보다 높은 성적이라고 명시하고 있지만, 생성된 응답은 이를 반대로 해석하여 낮은 수준이라고 주장합니다. 이러한 모순은 응답의 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 합격 기준에 대한 정보를 제공하고 있으며, 원본 텍스트의 질문과 관련된 내용을 다루고 있습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급과 합격 가능성에 대한 직접적인 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 원본 텍스트의 정보와 상충하는 부분이 있어 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 여러 가지로 상충하며, 잘못된 정보를 포함하고 있습니다. 특히, 평균 등급에 대한 잘못된 해석이 응답의 정확성을 크게 저하시킵니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 불일치가 많아 다차원적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다소 다르게 해석되고 있습니다. 따라서 의미적으로 적절하다고 보기 어려운 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 내용이 복잡하게 표현되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6896684992809828</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 최소합격 기준을 확인해보겠습니다.
+간호학과는 &lt;나&gt;군 실기/실적(일반학생전형)으로 모집되며, 수능 반영 영역은 다음과 같습니다:
+- 국어
+- 수학 (미적분 또는 기하)
+- 영어
+- 탐구
+수능 4개 영역 등급의 평균과 표준 편차를 확인하면:
+- 수능 4개 영역 등급: 평균 5.21, 표준 편차 0.33
+이 기준을 고려할 때, 국어와 수학(미적분 또는 기하)은 높은 점수를 요구하며, 영어는 중간 이상의 등급을 필요로 합니다.
+현재 성적이 2.52인 경우, 이는 평균보다 낮은 수준입니다. 따라서 간호학과의 최소합격 기준에 미치지 못할 가능성이 높습니다.
+하지만 정확한 합격 여부를 판단하기 위해서는:
+1. 해당 과목별 등급을 확인해야 합니다.
+2. 동의대학교에서 발표하는 최종 합격 기준을 확인해야 합니다.
+따라서 현재 정보로는 간호학과에 최종 합격할 가능성이 낮다고 추정됩니다. 더 자세한 정보를 얻기 위해서는 동의대학교의 공식 홈페이지나 입학처와 연락하는 것이 좋습니다.
+https://ipsi. deu. ac. kr/main. do
+추가적으로, 다른 전형을 통해 합격할 수 있는 기회도 고려해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 제공하지만, 정시 성적 3.7이 합격 가능성이 낮다는 점을 명확히 하지 않고 여러 조건을 제시하여 혼란을 줄 수 있습니다. 따라서 일부 사실은 정확하지만, 전체적인 맥락에서 혼란을 초래할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 여러 요소를 언급하지만, 원본 텍스트에서 제시된 평균 등급과의 일관성이 부족합니다. 정시 성적이 평균보다 낮다는 점을 명확히 하지 않고 다양한 가능성을 제시하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 평균 등급과의 비교가 부족하여 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있으며, 각 요소가 잘 연결되어 있습니다. 그러나 일부 부분에서 주제가 전환되는 느낌이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 여러 요소를 언급하지만, 원본 텍스트의 평균 등급과의 비교가 부족하여 정확성이 떨어집니다. 특히, 수능 최저 기준에 대한 언급이 원본 텍스트와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 핵심 내용을 충분히 반영하지 못해 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 길어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.6178030011742989</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 정시 성적을 가지고 간호학과에 합격할 수 있는지 확정적으로 답변하기는 어렵습니다. 하지만 간호학과의 모집인원과 전형요소 반영비율을 고려해보겠습니다.
+간호학과의 경우, 일부 전형에서는 수능이 주요하게 반영되며, 다른 전형에서는 실기와 학생부가 중요하게 평가됩니다. 특히 간호학과는 실기 성적이 중요한 요소로 작용하기 때문에 정시 성적 3.7만으로 합격하기는 어려울 수 있습니다.
+다만, 다음과 같은 점들을 고려하면 가능성이 있을 수 있습니다:
+1. **수능 최저 기준**: 간호학과의 경우 수능 최저 기준이 없을 수도 있으므로, 이 부분은 문제되지 않을 것입니다.
+2. **실기 성적**: 실기 성적이 높다면 합격 가능성은 높아집니다. 예를 들어, 레저스포츠학과나 태권도학과의 경우 실기가 주요하게 평가되므로, 이 부분에서 좋은 성적을 받으면 도움이 될 수 있습니다.
+3. **학생부 교과성적**: 학생부 교과성적이 높다면, 일부 전형에서는 학생부 교과성적이 중요한 요소로 작용할 수 있습니다.
+따라서, 정시 성적 3.7만으로 간호학과에 합격하기는 어렵지만, 실기 성적이나 학생부 교과성적이 높다면 합격 가능성은 있을 수 있습니다. 
+추가적으로, 각 전형의 특성을 잘 이해하고, 자신의 강점을 최대한 활용하는 것이 중요합니다. 또한, 대학 입시 관련 웹사이트나 대학 측에서 제공하는 정보를 참고하여 더 정확한 판단을 내릴 수 있습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해보시거나, 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 간호학과의 정시 모집인원, 수능 최저 기준, 정시 성적 평균 점수, 학과 특성, 전형 요소 반영 비율 등 여러 요소를 고려해야 한다고 언급하고 있습니다. 그러나, 원문에서 제공된 정보와 비교했을 때, 일부 정보는 구체적으로 언급되지 않았고, 합격 가능성에 대한 명확한 판단을 제공하지 않기 때문에 4점을 부여합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제시된 평균 등급과 정시 성적을 고려하고 있지만, 추가적인 정보가 필요하다고 강조하면서 원문과의 일관성이 떨어지는 부분이 있습니다. 특히, 원문에서는 2.58의 성적이 평균보다 높다고 명시했으나, 생성된 응답에서는 불확실성을 강조하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 합격 가능성을 판단하기 위한 여러 요소를 제시하고 있습니다. 따라서 원문과의 관련성이 매우 높아 5점을 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 4점을 부여합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 정보의 흐름이 다소 끊길 수 있어 4점을 부여합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 합격 가능성에 대한 판단이 명확하지 않아 약간의 부정확성이 존재합니다. 따라서 4점을 부여합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으나, 일관성과 정확성에서 약간의 부족함이 있어 4점을 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치도가 높지만, 일부 정보가 추가적으로 필요하다는 점에서 약간의 의미적 불일치가 있어 4점을 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어질 경우 이해하기 어려울 수 있어 4점을 부여합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.5929879506882597</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집인원은 22명입니다. 하지만 정확한 합격 가능성을 판단하기 위해서는 다음과 같은 정보가 필요합니다:
+1. **수능 최저 기준**: 2024학년도 동의대학교 간호학과의 수능 최저 기준을 확인해야 합니다. 이 정보는 대학 홈페이지나 입시 관련 공지에서 확인할 수 있습니다.
+2. **정시 성적 평균 점수**: 2023년도 또는 이전 논문 등에 정시 성적이 나와 있는 경우, 그 평균 점수를 참조하여 합격 가능성을 판단할 수 있습니다.
+3. **학과 특성**: 간호학과는 일반적으로 과목별 성적뿐만 아니라 실기 및 면접 등의 평가도 이루어집니다. 따라서 정시 성적이 2.58이라면, 이 점수만으로 합격할 수 있을지는 불확실합니다.
+4. **전형 요소 반영 비율**: 2024학년도 동의대학교 간호학과의 전형 요소 반영 비율을 확인해야 합니다. 예를 들어, 수능이 60%를 차지한다면, 정시 성적이 2.58이라면 합격 가능성은 낮아 보입니다.
+따라서, 정확한 답변을 위해서는 동의대학교 간호학과의 2024년도 정시 모집인원, 수능 최저 기준, 전형 요소 반영 비율 등을 확인해야 합니다. 이 정보를 바탕으로 합격 가능성을 판단할 수 있습니다.
+추가적으로, 대학 홈페이지나 입시 관련 공지에서 가장 최신 정보를 얻는 것이 좋습니다. 만약 필요한 정보를 찾을 수 없다면, 동의대학교 입시처에 직접 문의하는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 7번의 합격 가능성을 높게 평가하고 있지만, 원문에서는 예비 7번의 합격 가능성이 낮다고 명시하고 있습니다. 이로 인해 사실관계에 큰 오류가 발생했습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문에서는 예비 7번의 합격 가능성이 낮다고 했으나, 생성된 응답에서는 붙을 확률이 상당히 높다고 주장하고 있습니다. 이로 인해 일관성이 결여되었습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 7번에 대한 정보와 준비 방법을 제시하고 있어 관련성이 높지만, 원문에서의 핵심 정보인 합격 가능성에 대한 언급이 왜곡되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용의 정확성 문제로 인해 전체적인 흐름이 약간 손상되었습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 크게 다르며, 예비 7번의 합격 가능성에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실관계와 일관성에서 큰 문제를 보이고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 일부 내용이 부적절하게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.6920349560093656</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>7번 예비번호로 게임공학과를 지원하셨군요. 현재 게임공학과의 정원 내 모집 인원은 40명이며, 지원자는 서류평가와 면접평가를 거쳐 선발됩니다.
+정원 내 모집인원이 40명이고 예비번호가 7번이라는 점에서, 붙을 확률은 상당히 높습니다. 하지만 최종 합격 여부는 서류평가와 면접평가의 결과에 따라 결정되므로, 지원자 모두가 붙는 것은 아닙니다.
+서류평가에서는 학생부 종합 평가를 통해 공동체역량, 학업역량, 전공적합성 등을 평가받습니다. 그리고 면접에서도 지원동기와 학업계획, 학업역량, 전공적합성 등에 대해 질문이 이루어질 것입니다.
+따라서, 다음과 같은 준비를 하는 것이 도움이 될 수 있습니다:
+1. 학생부 종합 평가에서 공동체역량, 학업역량, 전공적합성을 잘 보여줄 수 있도록 준비합니다.
+2. 면접 질문에 대해 미리 답변을 준비하고 연습합니다.
+만약 자세한 정보나 추가 지원이 필요하다면, 입학사정관이나 대학 홈페이지의 안내를 참고하시거나 직접 문의하시는 것이 좋습니다. "https://ipsi.deu.ac.kr/main.do" 링크에서 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적 4.16이 게임공학과의 평균 등급보다 높다는 점을 언급하고 있으며, 추가 합격 가능성에 대한 언급도 포함되어 있습니다. 그러나 구체적인 평균 성적에 대한 정보는 제공하지 않고 있어 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 게임공학과의 전형 요소와 지원 절차에 대한 정보를 추가로 제공합니다. 다만, 원본 텍스트에서 언급된 평균 등급에 대한 구체적인 수치가 누락되어 있어 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 지원 절차와 추가 합격 가능성에 대한 정보를 제공하여 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 잘 구성되어 있어 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적인 흐름이 잘 유지되고 있으며, 각 단계가 명확하게 연결되어 있어 일관된 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 평균 성적에 대한 구체적인 수치가 누락되어 있어 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으나, 일부 정보 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.5914899867076496</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수로 동의대학교 게임공학과에 지원하려면, 해당 모집단위와 전형요소를 확인해야 합니다.
+동의대학교 게임공학과는 주로 수능 성적을 기반으로 하는 정시 전형이 대부분입니다. 그러나 특정 전형에서 학생부 종합전형이나 특별전형 등이 함께 진행될 수도 있습니다. 따라서, 게임공학과에 지원하려면 다음과 같은 절차를 따르는 것이 좋습니다:
+1. **모집단위 확인**: 게임공학과의 모집단위와 전형명을 확인합니다.
+2. **수능 성적 평균**: 동의대학교 게임공학과의 수능 성적 평균을 확인합니다. 이 정보는 대학 홈페이지나 입학처에서 제공하는 자료를 통해 얻을 수 있습니다.
+3. **경쟁률 및 충원 합격자**: 해당 모집단위의 경쟁률과 충원 합격자를 확인합니다.
+만약 4.16이라는 점수가 평균보다 높다면, 추가 합격 가능성은 있을 수 있습니다. 그러나 정확한 확률을 예측하기 위해서는 위에서 언급한 정보를 모두 확인해야 합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 좋습니다. 또한, 대입 컨설팅 서비스를 이용하면 더 구체적인 조언을 받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적 기준에 대한 정보가 부족하다고 언급하고 있지만, 원본 텍스트에서 제공된 평균 성적 정보(영어 등급 평균 2.88, 수능 4개 영역 등급 평균 3.88)를 반영하지 않고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 원본 텍스트는 3.75의 성적이 평균보다 높다고 명시하고 있지만, 생성된 응답은 이를 고려하지 않고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 원본 텍스트의 구체적인 성적 기준을 언급하지 않아 다소 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않고 있으며, 성적 기준에 대한 정보가 부족합니다. 따라서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절한 정보를 제공합니다. 그러나 원본 텍스트의 구체적인 사실을 반영하지 않아 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.6417801358593505</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도의 입학 전형 정보를 바탕으로 답변 드리겠습니다.
+현재 제공된 정보만으로는 경영정보학과에 대한 정시 모집군이나 성적 기준 등이 명확히 나와 있지 않습니다. 따라서, 경영정보학과 정시 성적 3.75로 최초등록자로 가능할지 여부를 판단하기 위해서는 다음과 같은 정보가 필요합니다:
+1. **정시모집군**: 경영정보학과의 정시 모집군이 무엇인지 확인해야 합니다.
+2. **성적 기준**: 해당 모집군에 대한 성적 기준이 무엇인지 확인해야 합니다.
+현재 제공된 정보에서는 정시모집군이나 성적 기준 등이 명확히 나와 있지 않아, 경영정보학과에 대한 최초등록자로 가능할지 여부를 판단하기 어렵습니다. 
+따라서, **"https://ipsi. deu. ac. kr/main. do"** 웹사이트에서 해당 학과의 정시모집군 및 성적 기준 등을 확인해 보시는 것이 가장 정확한 답변을 얻는 방법입니다.
+또한, 입학 전형 관련 자세한 정보는 각 단과대학 홈페이지나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 여러 요소를 언급하고 있지만, 원본 텍스트에서 제공된 구체적인 수치(영어 등급 평균 2.88, 수능 4개 영역 등급 평균 3.88)와 비교할 때, 4.2라는 성적이 평균보다 낮다는 점을 명확히 반영하지 못하고 있습니다. 따라서 일부 사실이 누락되거나 불명확하게 표현되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 경영정보학과의 평균 성적과 비교하여 합격 가능성이 낮다는 점을 명확히 언급하지 않고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 구체적인 수치와 비교하는 부분이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 여러 요소를 언급하고 있지만, 원본 텍스트의 구체적인 수치와 비교하여 정확한 정보를 제공하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으나, 일부 정보가 누락되어 있어 완전한 적절성을 갖추지 못했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 문장이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.6889120911435833</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 합격 가능성 판단이 어렵습니다. 경영정보학과의 정시 합격 가능성은 여러 요소에 따라 달라집니다.
+1. **수능 성적**: 제공된 수능 성적이 4.2로, 이는 평균적인 수준입니다.
+2. **모집단위와 전형요소**: 경영정보학과의 모집단위와 전형요소에 따라 달라질 수 있습니다.
+**추가 정보 필요사항:**
+- 경영정보학과의 정시 모집단위와 전형요소를 확인해야 합니다.
+- 해당 학과의 최저 성적 기준을 파악해야 합니다. 
+- 다른 지원자의 경쟁률도 고려해야 합니다.
+**추천 사항:**
+1. **입학사정관이 운영하는 전형**: 서류평가와 면접평가가 중요하므로, 학교생활기록부와 면접 준비를 철저히 해야 합니다.
+2. **모집단위별 최저 성적 기준 확인**: 해당 학과의 정시 모집단위별 최저 성적 기준을 확인해야 합니다.
+**결론:**
+현재 정보만으로는 경영정보학과의 정시 최초등록 가능성을 판단하기 어렵습니다. **입학사정관이 운영하는 전형에 지원하는 것이 더 유리할 수 있습니다.**
+더 자세한 정보를 얻기 위해서는 **"https://ipsi. deu. ac. kr/main. do"** 웹사이트를 참조하거나, 동의대학교 입학처로 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 5.33이라는 수능 등급이 높은 점수라고 언급하고 있지만, 원본 텍스트에서는 5.33이 경영정보학과의 평균 등급보다 낮다고 명시하고 있습니다. 따라서 사실관계에 여러 가지 오류가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 5.33 등급이 합격 가능성이 높다고 주장하지만, 원본 텍스트는 이 등급이 평균보다 낮아 합격 가능성이 낮다고 설명하고 있습니다. 두 정보가 상충하므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적, 서류 평가, 면접 평가에 대한 정보를 제공하여 주제와 관련이 있지만, 원본 텍스트의 핵심 내용인 합격 가능성에 대한 정보와는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 수능 등급에 대한 잘못된 해석을 포함하고 있으며, 원본 텍스트의 사실과 상충하는 내용을 담고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실관계와 일관성에서 큰 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으나, 원본 텍스트와의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.6206121512666792</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>5.33이라는 수능 등급은 상당히 높은 점수입니다. 동의대학교 경영정보학과의 경우, 전형요소 반영비율이 서류 70%와 면접 30%로 되어 있습니다. 이에 따라 합격 가능성은 다음과 같이 판단할 수 있습니다:
+1. **수능 성적**: 5.33 등급은 매우 높은 점수입니다. 대부분의 경우, 이 정도의 등급을 가진 지원자는 합격 가능성이 높습니다.
+2. **서류 평가**: 서류 평가는 학업태도와 성취, 그리고 전공적합성 등을 평가합니다. 5.33 등급을 가진 지원자라면 학업태도와 성취 부분에서 좋은 점수를 받을 가능성이 높습니다.
+3. **면접 평가**: 면접에서는 지원자의 인성, 의사소통 능력 등을 평가합니다. 이 부분에서도 5.33 등급을 가진 지원자는 좋은 평점을 받을 수 있습니다.
+따라서, 5.33 등급의 지원자가 동의대학교 경영정보학과 일반학생전형으로 합격할 가능성이 매우 높습니다. 하지만 최종 합격 여부는 서류평가와 면접평가를 포함한 전반적인 평가 결과에 따라 결정되므로, 정확한 판단을 위해서는 동의대학교 입학처 웹사이트나 전화로 상세히 문의하는 것이 좋습니다.
+더 궁금하신 점이 있으시면 언제든지 물어보세요.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 전형과 관련된 정보를 제공하고 있으며, 성적 3.33에 대한 평가도 포함되어 있습니다. 그러나 최초등록자에 대한 언급이 부족하여 일부 정보가 누락된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 최초등록자에 대한 조건을 명확히 언급하지 않아 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 바이오응용공학부에 지원하기 위한 전형과 관련된 정보를 제공하고 있어 원본 텍스트의 주제와 매우 관련이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 최초등록자에 대한 언급이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 전반적으로 정확한 정보를 제공하고 있으나, 최초등록자에 대한 조건이 명확히 언급되지 않아 일부 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 최초등록자에 대한 언급이 부족하여 의미 전달이 완전하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 정보를 전달하고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.7184028652889681</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부에 지원하려면, 학생부 교과성적을 반영하는 전형이 주요합니다. 현재 제공된 정보를 바탕으로, 바이오응용공학부는 "학생부종합(조기취업형계약학과전형)"이라는 전형이 있습니다.
+"학생부종합(조기취업형계약학과전형)"의 경우, 2024년도에는 학생부 교과성적과 면접 성적이 반영됩니다. 구체적으로는 서류(학생부)가 60%와 면접이 40%를 차지합니다.
+현재의 성적인 3.33은 학생부 교과성적에서 좋은 점수로 평가될 수 있습니다. 그러나 바이오응용공학부는 "최초등록자"라는 조건을 제시하지 않았습니다. 따라서, 성적이 3.33 정도라면, 합격 가능성은 있으나 확실한 것은 아닙니다.
+결론적으로, 성적 3.33 정도로 바이오응용공학부에 지원하는 것은 가능합니다만, 최종 합격 여부는 전형 요소 반영 비율과 면접 성적 등 다양한 요인에 따라 결정됩니다. 따라서, 정확한 정보를 얻기 위해서는 동의대학교 입시 홈페이지(https://ipsi. deu.ac.kr/main.do)를 참조하거나 입학처와 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원할 수 있는 가능성을 언급하고 있지만, 원본 텍스트에서 제시된 평균 등급과 비교했을 때 4.4의 성적이 낮다는 점을 간과하고 있습니다. 또한, 수능 반영 비율에 대한 정보는 추가적인 사실이지만, 원본 텍스트의 핵심 내용과는 다소 거리가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원할 수 있는 가능성을 언급하면서도, 원본 텍스트의 "합격 가능성이 낮다"는 주장을 반박하는 내용이 포함되어 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 조언을 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 일부 내용은 원본 텍스트의 핵심 정보와는 직접적인 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 조언이 명확하게 제시되어 있습니다. 그러나 원본 텍스트와의 연결이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 지원 가능성에 대한 정보가 정확하지 않으며, 원본 텍스트의 평균 등급과 비교했을 때 잘못된 해석이 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 조언을 제공하며, 의미적으로 적절합니다. 그러나 원본 텍스트의 주제와는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 조언을 제공합니다. 그러나 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6124864139215211</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>4등급의 성적을 가지고 방사선학과에 지원하는 것은 가능하지만 경쟁률이 높아서 불확실성이 있습니다. 방사선학과는 공과대학의 한 모집단위로, 수능 반영 비율은 국어(25%), 수학(미적분 또는 기하)(25%), 영어(25%), 탐구(25%)입니다.
+4등급의 성적을 가지고 지원한다면, 수능 점수만으로는 경쟁력을 갖추지 못할 가능성이 높습니다. 가산점이 있는 한의예과나 수학 미적분/기하 응시자에게 유리한 점수 구조를 고려하면 더욱 어려울 것입니다.
+따라서, 다음과 같은 방법을 고려해보세요:
+1. **추천서 작성**: 학교에서 받은 추천서가 있다면 이를 활용하여 지원할 수 있습니다.
+2. **면접 준비**: 면접 평가를 통해 개인적인 특성과 능력을 강조할 수 있습니다.
+3. **기타 자격 요건 충족**: 특정 전공에 필요한 기타 자격 요건을 충족시키는 것이 중요합니다.
+또한, 정확한 지원 가능성을 확인하려면 해당 대학의 입학처 웹사이트나 학교 관계자에게 문의하는 것을 추천드립니다. 더 많은 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과에 대한 구체적인 정보를 제공하지 않고, 주어진 정보가 방사선학과와 관련이 없다고 주장하고 있습니다. 그러나 원본 텍스트는 방사선학과의 평균 등급과 합격 가능성에 대한 정보를 포함하고 있어, 사실적으로 부정확합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 반영하지 않고, 방사선학과와 관련이 없다고 주장합니다. 이는 원본 텍스트의 정보와 상충하므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과에 대한 질문에 대한 답변으로 보이지 않으며, 원본 텍스트의 핵심 내용을 다루지 않고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으나, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 방사선학과에 대한 정보가 없다고 주장하는 것은 사실과 다릅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 관련성 모두 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 부적절한 주장을 하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.6094800304991037</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 방사선학과에 대한 자세한 내용이 없습니다. 현재의 정보는 주로 학과 분리, 학과 명칭 변경, 전형 요소 반영 비율 등에 관한 것이며 방사선학과와 직접 관련이 없습니다.
+방사선학과에 지원하려면 해당 학과의 정시 모집군과 수능 최저 기준 등을 확인해야 합니다. 제공된 정보에서 방사선학과의 정시 모집군이나 수능 최저 기준 등은 언급되어 있지 않습니다.
+따라서, 방사선학과에 대한 정확한 정보를 얻기 위해서는 대학의 공식 웹사이트나 입학처와 직접 문의하는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크에서 대학의 공식 웹사이트를 방문하여 더 자세한 정보를 확인할 수 있습니다.
+만약 방사선학과에 대한 추가 질문이 있으시다면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 포함하고 있으며, 농어촌학생전형에 대한 평가 요소를 잘 설명하고 있습니다. 그러나 원본 텍스트에서 언급된 "경쟁률이 낮아졌다는 점"에 대한 구체적인 언급이 부족하여 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 성적과 경쟁률에 대한 긍정적인 해석을 유지하고 있습니다. 그러나 서류 평가와 면접 평가에 대한 추가 정보가 포함되어 있어 원본 텍스트의 초점과 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 경찰행정학과에 지원하는 데 필요한 정보와 조언을 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 평가 요소에 대한 설명이 명확하게 이어집니다. 그러나 약간의 중복이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가적인 정보도 제공하지만, 원본 텍스트의 특정 세부사항이 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부사항에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 약간의 맥락 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.4733506055809348</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 성적은 경찰행정학과에 지원하는 농어촌학생전형에서 좋은 점수일 것입니다. 그러나 정확한 합격 여부는 서류평가와 면접 평가 결과, 그리고 다른 지원자의 평가 점수 등 다양한 요소에 따라 결정됩니다.
+1. **서류평가**: 지원자의 학교생활기록부를 통해 공동체역량, 학업역량, 전공적합성 등을 평가합니다. 특히 농어촌학생전형에서는 농어촌 거주 경력이나 교직 관련 활동 등이 중요하게 평가됩니다.
+2. **면접평가**: 지원자의 입학 동기와 학업 계획, 전공적합성 등을 면접을 통해 확인합니다. 면접에서도 학교생활기록부에 기재된 내용과 일치하는지 확인됩니다.
+3. **전형요소 반영비율**:
+   - 서류: 70%
+   - 면접: 30%
+이러한 요소들을 종합적으로 평가하여 합격 여부를 결정합니다. 따라서 단순히 성적만으로는 합격 여부를 판단하기 어렵습니다.
+추천되는 조치:
+- 지원서와 서류를 철저히 준비하고 확인하세요.
+- 면접 질문에 대한 답변을 미리 준비해보세요.
+- 농어촌 거주 경력이나 교직 관련 활동 등을 강조할 수 있도록 하세요.
+더 자세한 정보나 도움이 필요하시다면, 해당 대학의 입학처 웹사이트를 참조하거나 직접 문의하는 것이 좋습니다. (https://ipsi. deu. ac. kr/main. do)</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 합격자에 대한 경쟁이 치열하다고 언급하고 있지만, 원문에서 제공된 특정 학과에 대한 정보는 누락되어 있습니다. 또한, 수능 위주 전형에 대한 언급이 있지만, 원문에서는 합격 확률이 학과에 따라 달라질 수 있다고 명시하고 있습니다. 따라서 일부 사실은 정확하지만, 전체적으로는 원문과의 일치성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 합격 확률에 대한 정보를 다루고 있지만, 원문에서 제공된 특정 학과 목록을 언급하지 않아 일관성이 부족합니다. 또한, 수능 점수와 학생부 성적에 대한 언급이 원문과의 연결이 약해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 합격자와 관련된 정보를 제공하고 있으며, 수능 점수와 관련된 조언을 포함하고 있습니다. 그러나 원문에서 제시된 특정 학과 목록에 대한 언급이 없기 때문에 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 연결이 약해 전체적인 일관성은 다소 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 위주 전형에 대한 정보를 제공하지만, 원문에서 제시된 특정 학과에 대한 정보가 누락되어 있어 정확성이 떨어집니다. 또한, 합격 확률에 대한 명확한 정보가 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원문과의 일치성 및 관련성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 맥락과 의미에 적절하게 부합하지만, 특정 학과에 대한 정보가 누락되어 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 언어로 작성되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.569040090669128</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 예비 합격자는 경쟁이 매우 치열할 것입니다. 현재 제공된 정보만으로는 정확한 확률을 계산하기 어렵습니다. 하지만 수능 위주 전형인 경우, 수능 점수와 학생부 교과 성적 등이 중요한 평가 요소입니다.
+정시 일반학생전형의 경우, 수능 최저 기준 없음이라는 정보를 보면, 수능 점수가 매우 중요할 것입니다. 따라서 수능 점수를 높게 맞추는 것이 가장 좋은 방법일 것 같습니다.
+또한, 학생부 교과 성적이나 출결 등이 평가 요소로 포함되지 않는다는 점을 고려하면, 수능 점수가 주요 평가 기준이라는 것을 다시 한 번 확인해 보세요. 
+만약 더 자세한 정보나 조언이 필요하다면, 해당 대학의 입시 홈페이지를 참조하거나, 입시 상담 센터에 문의하시는 것이 좋습니다.
+https://ipsi.deu.ac.kr/main.do 에서 추가적인 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 법경찰행정학부에 대한 정보가 잘못되었으며, 해당 학부가 존재하지 않는다는 사실을 무시하고 있습니다. 또한, 평균 성적에 대한 정보도 잘못된 방향으로 설명하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 경찰행정학과에 대한 평균 성적을 제공하고 있지만, 생성된 응답은 전혀 다른 기준을 제시하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 법경찰행정학부의 입학 기준에 대한 잘못된 정보를 제공합니다. 원본 텍스트의 핵심 내용과는 전혀 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 부적절함으로 인해 전체적인 흐름이 방해받고 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 가지 요소를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 논리적 흐름이 결여되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 비교적 이해하기 쉬운 구조를 가지고 있지만, 내용의 부적절함으로 인해 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.5795456344971888</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>东义大学的法警察行政学部在普通单独招生中的录取标准并不是直接基于平均成绩，而是综合考虑了学生的学业能力、专业适应性以及共同体能力等多方面因素。具体来说：
+1. **学业能力**：主要参考学生高中期间的成绩单（学生活动记录），尤其是国语、数学和英语的科目成绩。
+2. **专业适应性**：通过面试来评估学生是否对法警察行政学部的专业有浓厚的兴趣，并且具备一定的职业素养和发展潜力。
+3. **共同体能力**：主要考察学生的团队合作能力和社会参与度。
+根据以往的数据，通常情况下，如果学生的高中学业成绩在国语、数学和英语等科目中达到B+或以上（具体等级可能因年份而有所不同），并且能够通过面试展示出对专业的浓厚兴趣和良好的职业素养，那么就有很大的机会被录取。当然，这也取决于当年的具体招生情况。
+建议您参考东义大学官网提供的最新信息，并咨询学校招生办公室以获取最准确的指导。如果需要进一步的帮助或有其他问题，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과의 수능 최저기준에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 아동학과의 평균 등급과 합격 가능성에 대한 구체적인 정보를 반영하지 않고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 아동학과의 평균 등급에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 보육가정상담학과의 합격 기준에 대한 질문에 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터와 비교할 때 일부 정보가 부족하여 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬운 구조로 작성되어 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트의 특정 세부사항이 누락되어 있어 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과의 수능 최저기준에 대한 정보를 제공하지만, 원본 텍스트의 아동학과 평균 등급에 대한 정보가 포함되어 있지 않아 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 양호한 성과를 보이고 있으나, 원본 텍스트의 구체적인 사실이 누락되어 있어 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 맥락에 적합한 의미를 전달하고 있으나, 특정 세부사항이 부족하여 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 따라서 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.6283804912456029</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과에 대한 정확한 합격 기준을 제공하기 위해서는 해당 학과의 수능 최저기준이나 전형별 평균 점수 등을 확인해야 합니다. 현재 제공된 정보로는 특정 학과의 수능 최저기준이 명시되어 있지 않으므로, 보육가정상담학과의 수능 최저기준을 확인하시거나, 해당 대학의 입학처 웹사이트를 참조해 주시면 더 정확한 답변을 드릴 수 있습니다.
+참고로, 2024학년도 동의대학교의 전형별 수능 최저기준은 대부분 "수능최저기준 없음"으로 표시되어 있어, 등급만으로 합격 여부를 판단하기는 어렵습니다. 따라서, 보육가정상담학과의 정확한 수능 최저기준을 확인하시거나, 입학처 웹사이트를 참조해 주세요.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 를 방문하여 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 충원 합격자 발표 일정과 예비 번호에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "합격 여부는 최종 발표일에 따라 결정된다"는 문구는 다소 모호하게 느껴질 수 있습니다. 전반적으로 사실에 기반한 내용이지만, 약간의 불확실성이 포함되어 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되며, 예비 번호와 관련된 합격 가능성에 대한 설명이 잘 연결되어 있습니다. 다만, "이전 차수에서는 이미 최대 선발 가능 인원이 채워졌거나"라는 부분은 원본 텍스트에서 명시되지 않은 정보로, 약간의 일관성 문제를 야기할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 예비 번호와 충원 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다. 모든 정보가 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 몇몇 문장에서 약간의 어색함이 느껴질 수 있습니다. 예를 들어, "합격 여부는 최종 발표일에 따라 결정되며" 부분이 조금 더 매끄럽게 표현될 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 문장에서 정보의 흐름이 약간 끊길 수 있는 부분이 있어 완벽한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 충원 합격과 관련된 정보가 정확합니다. 그러나 "이전 차수에서는 이미 최대 선발 가능 인원이 채워졌거나"라는 부분은 원본 텍스트에 명시되지 않은 정보로, 정확성에 약간의 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다. 그러나 약간의 일관성 및 정확성 문제로 인해 완벽한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 일부 문장에서 의미가 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 완벽한 이해 가능성은 아닙니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.7307444365051279</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담 충원 합격 3차에서 예비 12번을 받으셨다면, 합격 가능성은 있습니다. 하지만 확실한 것은 아닙니다. 합격 여부는 최종 발표일에 따라 결정되며, 이전 차수의 결과와 현재 모집 인원 등 여러 요인에 의해 결정됩니다.
+현재 정보로는:
+- 충원 합격 3차에서 예비 12번을 받으셨습니다.
+- 이전 차수에서는 이미 최대 선발 가능 인원이 채워졌거나, 다른 학생들이 선발되었을 수 있습니다.
+따라서 다음 단계는:
+1. 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지의 합격자 발표 및 등록금 납부를 기다려야 합니다.
+2. 홈페이지에서 개별 조회를 통해 최종 합격 여부를 확인해야 합니다.
+만약에 합격하지 못했다면, 충원 합격 3차 이후 (개별 전화 통보) 발표와 등록을 기다리셔야 합니다. 이 시점에서는 합격 가능성은 낮지만, 최종 결과를 기다리는 것이 좋습니다.
+더 궁금하신 점이 있으시다면, https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75라는 성적이 높은 점수라고 언급하고 있지만, 유아교육학과에 지원하기 어려울 것이라는 원본 텍스트의 결론과는 일치하지 않습니다. 따라서 일부 사실이 왜곡되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 정보와 관련된 내용을 포함하고 있지만, 원본 텍스트에서 제시된 유아교육학과의 평균 성적과의 일관성이 부족합니다. 원본 텍스트는 4.75로 지원하기 어렵다고 명시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있으며, 유아교육학과에 대한 정보와 지원 가능성에 대한 논의가 포함되어 있습니다. 그러나 원본 텍스트의 구체적인 데이터에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 4.75 성적이 높은 점수라고 언급하지만, 유아교육학과에 지원하기 어려운 점을 간과하고 있습니다. 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 유용한 정보를 제공하지만, 사실성과 일관성에서 부족함이 있어 다차원적으로 높은 품질을 보장하지 못합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬운 언어로 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7667963930122284</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 등급은 상당히 높은 점수입니다. 일반적으로 수능 등급이 4.0 이상인 학생들은 대부분의 대학에서 좋은 결과를 얻을 수 있습니다.
+유아교육학과는 특정 전공에 대한 요구가 있을 수 있으므로, 수능 성적 외에도 학업역량이나 전공적합성 등의 평가 기준이 중요합니다. 유아교육학과에서는 교육 관련 경험, 활동 등이 중요한 요소로 작용할 수 있습니다.
+따라서 4.75라는 높은 수능 성적으로는 유아교육학과에서도 충분히 경쟁력을 갖추실 수 있을 것입니다. 하지만 최종 합격 여부는 모집단위와 지원자의 전반적인 자질 평가, 서류평가 등 다양한 요소에 따라 결정되므로 확신을 가질 수 없습니다.
+만약 더 구체적인 정보나 조언이 필요하시다면, 해당 대학의 입학처 웹사이트를 참조하거나 직접 문의하는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교의 입학정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 합격 가능성에 대한 정보를 제공하고 있으며, 수능 점수와 등급의 중요성을 강조하고 있습니다. 그러나 원본 텍스트에서 제공된 평균 등급과 비교하여 구체적인 수치를 제시하지 않아 일부 정보가 누락된 것으로 보입니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 수능 점수와 등급이 합격 가능성에 미치는 영향을 잘 설명하고 있습니다. 다만, 원본 텍스트의 구체적인 수치와 비교할 때 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 보육가정상담학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 잘 반영하고 있으나, 평균 등급과 같은 구체적인 수치가 누락되어 있어 완전한 정확성에는 다소 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 일부 표현에서 더 명확한 의미 전달이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.6444023360714211</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 보육가정상담학과(아동학과)의 경우, 전형요소 반영비율은 수능 위주로 되어 있습니다. 따라서 수능 점수와 등급이 핵심적인 역할을 합니다.
+현재 제공된 정보만으로는 정확한 예측이 어렵습니다. 하지만 보육가정상담학과(아동학과)의 경우, 2024년도 모집에서 지원 인원과 경쟁률 등을 고려하면 다음과 같은 점수를 얻어야 합격 가능성에 대한 기대를 높일 수 있을 것입니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 300점 이상
+- **영어 등급**: 평균 4.0점 이상
+현재의 환산등급 4.16은 영어 부분에서 좋은 성적을 받았음을 의미합니다. 하지만 수능 국어, 수학, 탐구 등의 점수도 중요하므로 전체적인 합격 가능성은 수능 점수와 등급에 크게 의존할 것입니다.
+따라서, 현재의 환산등급 4.16만으로는 확실한 합격을 보장받기는 어렵습니다. 정확한 합격 가능성을 확인하려면 실제 수능 점수가 어떻게 나오는지와 지원 인원 및 경쟁률 등을 고려해야 합니다.
+추후에 더 자세한 정보를 얻으시기 바랍니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 공식 웹사이트에서 최신 정보를 확인하시거나, 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과에 정시로 지원할 수 없다는 사실을 부정확하게 다루고 있습니다. 원문에서는 명확하게 지원할 수 없다고 언급했으나, 생성된 응답은 확실한 답변을 드리기 어렵다고 하여 모호한 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문은 정시 지원이 불가능하다고 명확히 말하고 있지만, 생성된 응답은 정시 지원 가능성에 대한 불확실성을 제기하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과의 정시 지원 여부에 대한 질문에 대한 답변을 제공하려고 하지만, 주제에서 벗어난 정보(소프트웨어공학부의 평균 점수 등)를 포함하고 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 길고 복잡하여 가독성을 떨어뜨릴 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 부족하여 일관성이 떨어집니다. 원문과의 연결이 약해 응답이 일관되게 느껴지지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 크게 다릅니다. 원문은 정시 지원이 불가능하다고 명확히 말하고 있으나, 생성된 응답은 이를 부정확하게 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 원문과의 불일치가 두드러지며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락을 잘 반영하지 못하고 있습니다. 정시 지원 불가능이라는 명확한 사실을 회피하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 정보의 모호성과 불확실성으로 인해 혼란을 줄 수 있습니다. 명확한 답변이 부족하여 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.5087153198171654</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 "소프트웨어융합학과"에 정시로 지원할 수 있는지의 확실한 답변을 드리기 어렵습니다. 이 학과에 대한 정시 모집 여부와 해당 학과의 평균 등급 요구를 확인하기 위해서는 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)에서 최신 정보를 확인해 보시는 것이 좋겠습니다.
+그럼에도 불구하고, 일반적으로 소프트웨어 관련 학과에 지원하려면 높은 수능 등급을 요구받을 가능성이 있습니다. 제공된 데이터 중에서 "소프트웨어공학부"와 관련된 정보를 찾아보면, 해당 분야의 평균 수능 4개 영역 (가산점 포함) 표준 변환 점수 합은 약 353.35입니다.
+따라서, 소프트웨어융합학과에 정시로 지원하려는 경우에도 비슷한 수준의 등급을 받아야 할 것으로 예상됩니다. 하지만 이는 공식적인 정보가 아닌 추정치이므로, 최종 결정을 내리기 전에는 공식 웹사이트를 통해 확인하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명된 내용은 소프트웨어융합학과의 평가 방식에 대한 정보를 포함하고 있으며, 서류 평가와 면접 고사에 대한 언급이 있습니다. 그러나 "면접 점수보다 세특 내용을 더 많이 보시는 편입니다"라는 주장은 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부 일치하지만, 면접에서 세특 내용을 더 중시한다는 주장은 원문에 명시된 내용과 일치하지 않습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 면접 준비와 관련된 세부사항을 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 내용이 원문과의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 전반적으로 정확한 정보가 포함되어 있으나, 면접에서 세특 내용을 더 중시한다는 주장은 원문에 명시되어 있지 않아 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 여러 차원에서 좋은 성과를 보이고 있으나, 일관성과 정확성에서 약간의 부족함이 있어 점수는 중간 이상으로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과의 의미적 일치도가 높지만, 일부 표현이 원문과 다르게 해석될 수 있는 여지가 있습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 내용이지만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.6683476361292311</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>《소프트웨어융합공과대학의 면접 평가와 관련된 세부사항》에 대해 설명드리겠습니다.
+1. **면접 점수보다 세특 내용을 더 많이 보시는 편입니다:** 면접에서는 지원자의 학업역량, 전공적합성 등을 종합적으로 평가합니다. 이때 서류평가에서의 성적과 활동내용이 중요하게 작용하므로, 세특 내용을 잘 준비하는 것이 필요합니다.
+2. **서류 준비:** 면접에 앞서 제출된 서류를 철저히 검토해야 합니다. 주요 세부사항은 다음과 같습니다.
+   - **공동체역량:** 협업능력과 배려, 학교폭력 여부 등이 평가됩니다.
+   - **학업역량:** 학업태도와 성취정도, 수업시간의 참여도 등을 평가합니다.
+   - **전공적합성:** 지원자의 열정과 관련 활동내용을 평가합니다.
+3. **준비 방법:**
+   - **서류 검토:** 제출된 서류를 다시 한 번 체크하여 내용이 정확하고, 학교생활기록부와 일치하는지 확인하세요.
+   - **활동 요약:** 지원자가 참여한 활동을 요약하여 준비합니다. 특히 창의적체험활동과 교과학습발달상황 등은 중요합니다.
+   - **성격 특징:** 행동특성 및 종합의견에서 언급된 성격 특징을 강조할 수 있습니다.
+이러한 점들을 고려하여 면접 준비를 철저히 하시면 좋을 것 같습니다. 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 평균 성적에 대한 정보가 아닌 중어중국학과의 평균 성적을 언급하고 있습니다. 이는 원본 텍스트와 관련이 없으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 대한 질문에 대해 중어중국학과의 정보를 제공하고 있어 일관성이 부족합니다. 또한, 소프트웨어공학부의 성적 요구에 대한 정보가 모호하게 제시되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 질문의 주제와 관련이 적습니다. 소프트웨어공학부에 대한 정보 대신 중어중국학과의 정보를 제공하고 있어 주제와의 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 주제가 일관되지 않아 전체적인 일관성이 떨어집니다. 중어중국학과의 정보가 포함되어 있어 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 소프트웨어공학부에 대한 정보가 아닌 다른 학과의 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 질문의 맥락과 의미에 적절하지 않습니다. 소프트웨어공학부에 대한 질문에 중어중국학과의 정보를 제공하여 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 주제가 일관되지 않아 혼란을 줄 수 있습니다. 따라서 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7428503861482141</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 중어중국학과의 경우, 수능 4개 영역 등급 평균이 5.21이고 표준 편차가 0.33입니다. 이는 비교적 높은 점수를 요구하는 모집단위임을 알 수 있습니다.
+당신이 정시 성적이 4.08이라면, 이는 평균보다 약간 낮습니다. 그러나 동의대학교 소프트웨어공학부는 일반적으로 다른 학과에 비해 더 높은 점수를 요구하는 경향이 있습니다.
+따라서 정시 성적이 4.08인 경우, 동의대학교 소프트웨어공학부로 최초합격을 기대하기는 어렵다고 볼 수 있습니다. 그러나 이는 단순히 평균과 표준 편차를 바탕으로 한 추정일 뿐이며, 개인의 성적 분포와 경쟁률 등 다양한 요인들이 고려되어야 합니다.
+더 정확한 판단을 위해서는 동의대학교 소프트웨어공학부의 최종 합격자들의 성적 분포를 확인하거나, 해당 대학의 입학처에 문의하는 것이 좋습니다. 더 자세한 정보를 얻기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 소프트웨어융합학과에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 잘못된 정보(예: 수능 4개 영역 등급 평균, 경쟁률 등)를 포함하고 있습니다. 원본 텍스트와 일치하지 않는 내용이 많아 사실성이 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 포함하고 있습니다. 예를 들어, 소프트웨어융합학과와 소프트웨어공학과를 혼동하고 있으며, 원본에서 언급된 전형 요소와 관련된 정보가 누락되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주어진 질문에 대한 직접적인 답변이 부족합니다. 원본 텍스트의 핵심 정보와는 거리가 있는 내용이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 일관성이 떨어집니다. 정보가 명확하게 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 많아 정확성이 매우 낮습니다. 특히, 소프트웨어융합학과에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 사실성, 일관성, 정확성에서 큰 문제가 있어 다차원적인 품질이 매우 낮습니다. 원본 텍스트와의 관계가 약해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않는 부분이 많아 의미적으로 적절하지 않습니다. 특히, 잘못된 정보가 포함되어 있어 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 전반적으로 이해할 수 있지만, 정보의 정확성과 일관성이 부족하여 혼란을 초래할 수 있습니다. 명확한 정보 전달이 이루어지지 않아 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.5487051449056466</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학과의 경우, 지원자의 평균 5등급을 기준으로 보면 다음과 같은 정보가 있습니다.
+- **수능 4개 영역 등급 평균**: 4.12
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균**: 330.11
+이 정보를 바탕으로, 평균 5등급을 기준으로 지원한다면 경쟁률과 모집 인원, 지원 인원 등을 고려해볼 필요가 있습니다.
+- **모집 인원**: 30명
+- **지원 인원**: 146명
+- **경쟁률**: 약 4.87대 1
+평균 5등급을 기준으로 지원한다면, 경쟁률이 높은 만큼 충분한 준비와 추가적인 요소들을 고려해야 합니다.
+따라서, 평균 5등급으로 소프트웨어공학과에 지원 가능하지만, 경쟁률이 높아 성공적으로 합격하기 위해서는 추가적인 준비가 필요합니다. 자세한 정보를 얻기 위해서는 대학의 공식 웹사이트나 입학처와 직접 문의하는 것이 좋습니다.
+더 궁금하신 점이 있으시면 알려주세요!</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보를 왜곡하고 있습니다. 원본 텍스트는 4.28이라는 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높다고 명시하고 있으며, 합격 가능성이 높다고 판단하고 있습니다. 그러나 생성된 응답은 4.28이 평균보다 약간 높은 수준이라고 하면서 합격 가능성이 낮다고 주장하고 있습니다. 이는 원본 텍스트와 상충하는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 합격 가능성이 높다고 명시했지만, 생성된 응답은 반대로 합격 가능성이 낮다고 주장하고 있습니다. 이러한 상반된 주장은 일관성을 결여하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본 텍스트의 핵심 정보를 왜곡하여 제시하고 있습니다. 원본 텍스트의 합격 가능성에 대한 판단을 다루고 있으므로 관련성은 높지만, 잘못된 정보로 인해 점수가 낮아졌습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 원본 텍스트의 결론과 상반된 주장을 하여 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 잘못된 결론을 도출하고 있습니다. 원본 텍스트의 정보에 기반한 정확한 판단이 이루어지지 않았습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 특히 사실성과 일관성에서 큰 문제를 보이고 있습니다. 전반적으로 원본 텍스트의 정보를 잘못 해석하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미를 일부 전달하고 있지만, 잘못된 결론으로 인해 의미의 적절성이 떨어집니다. 원본 텍스트의 의도와는 다르게 해석되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.5808624561204047</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수를 가지고 동의대학교 신소재공학과에 합격할 확률을 판단하기 위해서는 해당 대학의 입시 평균 점수와 표준 편차 등을 고려해야 합니다.
+주어진 데이터에서 동의대학교 신소재공학과의 정보를 확인해보겠습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**:
+  - 평균: 286.97
+  - 표준 편차: 15.35
+- **수능 4개 영역 등급**:
+  - 평균: 5.32
+  - 표준 편차: 0.36
+주어진 점수가 평균보다 약간 높은 수준이므로, 이론적으로는 합격 가능성은 있습니다. 그러나 표준 편차가 작다는 것은 해당 대학의 입시 경쟁률이 높고, 평균점수와 유사한 점수를 받더라도 합격하기 어렵다는 것을 의미합니다.
+따라서 4.28이라는 점수로는 동의대학교 신소재공학과에 합격할 확률은 낮을 것으로 예상됩니다. 실제 입시 결과는 다양한 요인에 의해 결정되므로, 최종적인 합격 여부는 입시 결과 발표를 기다려야 합니다.
+추가적으로, 다른 대학이나 전형에서 지원해보는 것도 고려해볼 만한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정보가 포함되어 있지만, 원본 텍스트의 핵심 사실인 "자기소개서가 필요없다"는 내용을 정확하게 반영하지 않고 있습니다. 또한, 추가된 정보는 관련성이 떨어지며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 자기소개서가 필요 없다고 명확히 언급하고 있지만, 생성된 응답은 일반적인 학생 입학 신청에 대한 정보를 제공하며, 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 질문에 대한 답변으로서 일부 관련성을 가지고 있지만, 주제에서 벗어난 정보가 많아 전반적으로 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 논리적인 흐름이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 원본 텍스트와의 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 특히 자기소개서의 필요성에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 주제와 관련이 없는 정보가 포함되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 주제가 불명확하여 이해하기 어려운 부분이 있습니다. 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.3703924757084267</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>一般的的学生入学申请通常不需要提交个人陈述书（自我介绍信）。根据提供的信息，对于一般学生入学考试（가군），主要考虑的因素包括：
+1. **国语、数学和英语的标准化分数**：这些是核心科目。
+2. **社会学科（历史/道德包含）**：也是重要考量因素之一。
+3. **加权分数**：某些情况下会根据特定科目的成绩进行加权。
+对于一般学生入学考试，通常不需要提交个人陈述书。如果您有其他疑问或需要进一步的帮助，请告诉我具体的专业和学校要求。如果不确定是否需要提交个人陈述书，建议直接访问该大学的官方网站（https://ipsi. deu. ac. kr/main. do）获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교의 수능 정시 모집에 대한 정보를 제공하고 있으며, 수능 점수 산출 방법에 대한 설명이 포함되어 있습니다. 그러나, 4.5라는 점수가 어떤 방식으로 산출되었는지에 대한 명확한 정보가 부족하여 일부 사실이 누락된 것으로 평가됩니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 대체로 일치하며, 수능 점수 산출 방법에 대한 설명이 추가되어 있습니다. 그러나, 원본 텍스트에서 언급된 각 학과의 평균 등급과 비교하는 부분이 다소 간과된 점이 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 점수와 추가 모집에 대한 질문에 적절하게 답변하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 문장이 잘 연결되어 있습니다. 그러나, 일부 정보가 추가되어 있어 원본 텍스트와의 연결이 약간 느슨해질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 수능 점수 산출 방법에 대한 정확한 정보를 제공하고 있지만, 4.5라는 점수의 출처에 대한 명확한 설명이 부족하여 완전한 정확성은 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 유용한 정보를 제공합니다. 그러나 일부 세부 사항이 부족하여 완전한 점수를 주기에는 아쉬움이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 일부 추가 정보가 원본 텍스트의 주제와 약간의 차이를 보일 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다. 따라서 명확성에서 약간의 개선이 필요합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.7303374570593674</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 수능 반영 영역 중 국어, 수학, 영어, 탐구 등급에 따른 점수의 합계점수가 아닌 것으로 보입니다. 동의대학교에서 수능 정시 산출방법을 보면 각 모집단위별로 다르게 적용됩니다.
+예를 들어, 인문사회과학대학과 상경대학 모집단위는 다음과 같이 산출합니다:
+- 국어 표준점수 25% + 수학 표준점수 25% + 영어 등급점수 25% + 탐구 표준점수 25%
+공과대학, ICT융합공과대학 모집단위는 다음과 같이 산출합니다:
+- 국어 표준점수 25% + 수학 표준점수 25% + 영어 등급점수 25% + 탐구 표준점수 25%
+- 수학(미적분 또는 기하) 응시자 : 수학 취득 표준점수의 10% 가산점
+따라서, 4.5라는 점수가 어느 모집단위에서 산출되었는지 확인해야 합니다. 예를 들어, 공과대학이나 ICT융합공과대학에서는 수학에 대한 10% 가산점을 받았다면, 실제 수능 점수는 더 높아질 것입니다.
+추가모집에 들어갈 확률을 정확히 판단하기 위해서는 해당 모집단위의 경쟁률, 충원 합격자 등 정보를 확인해야 합니다. 따라서, 동의대학교의 입학처 웹사이트나 전형 안내서를 참조하거나, 직접 입학처와 문의하는 것이 좋습니다.
+https://ipsi.deu.ac.kr/main.do 에 접속하여 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 신소재공학부의 정시 등급 정보가 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 평균 등급에 대한 구체적인 정보가 제공되어 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용을 반영하지 않고 있으며, 원본 텍스트에서 제공된 정보와 상충하는 내용을 포함하고 있습니다. 이는 일관성이 부족함을 나타냅니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교 신소재공학부에 대한 정보를 제공하려고 하지만, 원본 텍스트의 핵심 정보인 평균 등급에 대한 내용을 다루지 않고 있습니다. 따라서 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 무시하고 있으며, 잘못된 정보를 제공하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 부족함을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.639435594904462</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학부에 대한 정확한 정시 등급 정보가 제공된 문서에는 포함되어 있지 않습니다. 정시 등급은 매년 변경되므로, 최신 정보를 얻기 위해서는 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 방문하여 확인해보시거나, 직접 연락을 주시면 도움을 드릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 정보가 부정확합니다. 원문에서는 평균 점수가 378.15점이라고 명시되어 있지만, 생성된 응답에서는 447점보다 약간 높았다고 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부 일치하지만, 평균 점수에 대한 정보가 잘못되어 있어 일관성이 떨어집니다. 또한, 학생부 종합전형에 대한 설명이 추가되어 있지만, 원문에서의 핵심 정보와는 다소 동떨어진 내용입니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 제시된 점수와 합격 가능성에 대한 직접적인 언급이 부족합니다. 그러나 학생부 종합전형에 대한 설명은 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 원문과의 연결성이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원문에서 제공된 사실과 다소 차이가 있으며, 특히 평균 점수에 대한 정보가 잘못되어 있습니다. 이는 정확성에 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 정확성에서의 문제로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 학생부 종합전형에 대한 설명이 원문과 관련이 있습니다. 그러나 원문에서의 핵심 정보와는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 설명이 제공됩니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.6624696631596617</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 학생부 종합전형에서 표준 변환 점수는 작년과 비교하여 크게 달라지지는 않았습니다. 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았던 것은 표준 변환 점수를 기반으로 한 것이므로, 작년에 비해 큰 변화는 없을 것으로 예상됩니다.
+그러나 학생부 종합전형은 다양한 요소가 고려되므로, 작년과 동일한 점수가 최종적으로 높게 평가되는 것은 가능합니다. 특히 서류평가와 면접평가에서 좋은 성적을 받는다면, 표준 변환 점수만으로는 결정되지 않을 수 있습니다.
+따라서, 작년에 비해 약간의 우위를 가지려면:
+1. **서류평가**에서 높은 점수를 받는 것이 중요합니다. 공동체역량, 학업역량, 전공적합성 등 모든 영역에서 좋은 평가를 받아야 합니다.
+2. **면접평가**에서도 우수한 성적을 받는 것이 필요합니다. 면접에서는 지원동기와 학업계획, 학업역량, 전공적합성 등을 잘 설명해야 합니다.
+따라서, 작년에 비해 약간의 우위를 가지려면 서류평가와 면접평가에서 높은 점수를 받는 것이 중요합니다. 하지만 표준 변환 점수가 동일한 경우에도 최종 평가는 다양한 요소가 고려되므로, 작년과 비슷한 결과를 얻을 가능성은 있습니다.
+더 자세한 정보나 추가적인 도움이 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해 보시거나 입학사정관에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교 신소재공학부의 평균 성적과 관련된 정보를 포함하고 있으며, 지원자의 성적에 대한 평가도 적절하게 이루어졌습니다. 그러나 "4.1 ~ 4.2 정도의 수능 성적만으로는 합격 확률이 낮을 것으로 보입니다"라는 부분은 다소 부정확할 수 있습니다. 원문에서는 합격 가능성이 높다고 언급했기 때문입니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부 일치하지만, 합격 가능성에 대한 해석이 상반되어 일관성이 떨어집니다. 원문에서는 합격 가능성이 높다고 했으나, 생성된 응답에서는 낮을 것이라고 언급하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다룬 주제와 관련이 깊으며, 신소재공학부의 전형요소와 절차에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 내용이 원문과의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 대부분의 정보가 정확하지만, 합격 가능성에 대한 해석에서 원문과의 차이가 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으나, 일관성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과의 의미적 일치도가 높지만, 합격 가능성에 대한 해석에서 다소 차이가 있어 완전한 적절성은 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.603373980811226</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급의 수능 점수가 정시 성적 산출 방식에 따라 약 4.1 ~ 4.2 정도로 변환될 것으로 보입니다. 동의대학교의 신소재공학과 일반학생전형을 위해서는 다음과 같은 절차와 요구사항을 확인해야 합니다.
+1. **수능 성적**: 현재 예상 수능 성적이 약 4.1 ~ 4.2 정도로 변환될 것으로 보입니다.
+2. **모집단위 및 전형요소**: 신소재공학과의 모집단위와 전형요소를 확인해야 합니다. 일반학생전형의 경우, 수능 성적 외에도 학업태도, 학업성취 등이 반영될 것입니다.
+3. **전형요소 반영비율**: 동의대학교의 나군(일반학생전형)에서 전형요소 반영 비율은 서류 70%, 면접 30%입니다.
+4.1 ~ 4.2 정도의 수능 성적만으로는 합격 확률이 낮을 것으로 보입니다. 하지만, 학업태도와 학업성취 등 다른 요소가 잘 반영된다면 기회를 얻을 수도 있습니다. 따라서, 다음과 같은 절차를 따르세요:
+1. **수능 성적 확인**: 정확한 수능 성적을 확인하세요.
+2. **서류 준비**: 학교생활기록부, 수험번호 등 필요한 서류를 준비하세요.
+3. **면접 준비**: 면접에서도 좋은 성적을 얻을 수 있도록 준비하세요.
+결론적으로, 4.1 ~ 4.2 정도의 수능 성적만으로는 신소재공학과 일반학생전형에 합격하기 어렵습니다. 하지만, 다른 요소가 잘 반영된다면 기회를 얻을 수도 있습니다. 자세한 정보는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.
+https://ipsi. deu. ac. kr/main. do 에서 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 모집 인원과 경쟁률에 대한 정보가 잘못된 내용을 포함하고 있습니다. 원본 텍스트에서는 모집 인원이 15명이라고 명시되어 있으나, 생성된 응답에서는 "정원 내 모집인원은 4 이내로 제한되어 있습니다"라고 잘못 언급하고 있습니다. 또한, 제시된 성적 기준도 원본 텍스트의 정보와 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트의 성적 정보와 생성된 응답의 성적 기준이 서로 다르며, 이는 응답의 일관성을 저해합니다. 또한, 모집 인원에 대한 정보도 상충됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과에 지원하기 위한 성적 기준을 제시하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 구체적인 성적 정보와는 다소 차이가 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있습니다. 특히, 모집 인원과 성적 기준에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 평가를 받을 수 있지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과 일치하지 않는 정보가 포함되어 있어 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.7772585240385427</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 경우, 정원 내 모집인원은 4 이내로 제한되어 있습니다. 따라서 경쟁이 매우 치열할 것으로 예상됩니다.
+현재 제공된 정보를 바탕으로 추정해보면, 동의대학교 인공지능학과에 지원하기 위해서는 다음과 같은 성적을 갖추어야 할 것입니다:
+1. **국어**: 90점 이상
+2. **수학**: 85점 이상
+3. **영어**: 75점 이상
+4. **한국사**: 80점 이상
+이러한 성적은 일반적으로 고득점을 요구하는 전형으로, 학생부 종합전형과 비슷한 수준의 성적이 필요할 것으로 보입니다.
+추가로, 동의대학교 인공지능학과는 실기고사도 진행하므로, 실기 성적도 중요하게 평가될 것입니다. 따라서 실기 준비도 철저히 해야 합니다.
+만약 더 자세한 정보나 지원 전략이 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시거나 입학처에 문의하시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 5.27 성적에 대한 충원 합격 가능성을 언급하고 있지만, 원본 텍스트에서 제공된 구체적인 학과와 성적 정보를 무시하고 일반적인 입학 전형 요건에 대한 설명으로 대체하고 있습니다. 이는 원본 텍스트의 핵심 정보를 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 특정 학과의 성적 기준을 제시하고 있지만, 생성된 응답은 일반적인 전형 요건에 대한 설명으로 일관성을 잃고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 5.27 성적에 대한 질문에 답변하고 있지만, 원본 텍스트에서 제공된 구체적인 정보와는 관련성이 떨어집니다. 원본 텍스트의 주요 내용인 충원 합격 가능성에 대한 정보가 누락되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 적절성에 따라 점수가 다소 낮아질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트의 정보와 관련이 적어 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 5.27 성적에 대한 충원 합격 가능성에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 원본 텍스트의 주요 내용을 반영하지 못하고 있으며, 여러 품질 차원에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽지만, 원본 텍스트의 정보와 관련이 적어 이해의 맥락이 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.5761290710160627</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 추천입학(추합)이 가능한지에 대한 답변은 정확한 결과를 알기 위해서는 해당 대학의 전형 요건과 기준을 확인해야 합니다.
+현재 제공된 정보만으로는 특정 대학의 전형 요건을 파악하기 어렵습니다. 일반적으로 추천입학(추합)은 학교에서 추천하는 학생들을 대상으로 하며, 성적 외에도 학생부 평가, 면접 등 다양한 요소를 고려합니다.
+따라서 5.27이라는 성적만으로는 추천입학(추합)이 가능한지 알기 어렵습니다. 해당 대학의 전형요건과 기준을 확인하거나, 입학처에 문의하는 것이 가장 정확한 답변을 얻는 방법입니다.
+더 자세한 정보를 원하시면 "https://ipsi.deu.ac.kr/main.do" 링크에서 해당 대학의 입학전형 안내 페이지를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 정시 성적 4.2에 대한 합격 가능성을 잘 설명하고 있습니다. 그러나 모집 인원에 대한 정보가 다소 불확실하며, "3명"이라는 숫자가 정확한지 확인이 필요합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 소스 텍스트의 정보와 일관되며, 정시 성적 4.2가 평균 등급보다 높은 점수를 가지고 있다는 점을 잘 반영하고 있습니다. 다만, 모집 인원에 대한 언급이 소스 텍스트에 명시되어 있지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 소스 텍스트의 주제와 관련이 깊으며, 정시 성적 4.2에 대한 합격 가능성을 다루고 있습니다. 모든 정보가 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 소스 텍스트의 사실을 잘 반영하고 있으며, 정시 성적 4.2에 대한 합격 가능성을 정확하게 설명하고 있습니다. 그러나 모집 인원에 대한 정보는 확인이 필요합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 소스 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 복잡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6768176386699957</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 정보를 바탕으로, 정시 성적이 4.2인 경우 합격 가능성은 다음과 같이 판단할 수 있습니다.
+1. **전형 유형**: 동의대학교 소프트웨어공학부는 주로 "수능 위주"와 "학생부교과" 전형을 통해 모집합니다.
+   - **수능 위주** 전형에서는 수능 성적이 핵심입니다. 정시 성적 4.2는 수능 점수에 해당하는 것으로 보이므로, 이 부분에서 좋은 성적을 받은 경우 합격 가능성은 높습니다.
+   - **학생부교과** 전형에서는 학생부 교과성적이 중요합니다. 정시 성적 4.2가 학생부 교과성적으로 반영된다면 합격 가능성이 있습니다.
+2. **모집인원**: 소프트웨어공학부의 정원 내 모집 인원은 3명입니다 (단, 과정별로 다를 수 있으므로 확인이 필요합니다).
+3. **전형요소 반영비율**:
+   - **수능 위주** 전형에서는 수능 점수가 핵심입니다.
+   - **학생부교과** 전형에서는 학생부 교과성적이 중요하며, 이 부분에서 좋은 성적을 받은 경우 합격 가능성은 높습니다.
+4. **합격 예상 인원**: 정시 성적이 4.2인 경우, 수능 점수가 충분히 높다면 합격 가능성이 있습니다. 그러나 정확한 합격 가능성을 판단하기 위해서는 해당 전형의 수능 최저 기준을 확인해야 합니다.
+따라서, 정시 성적 4.2인 경우 동의대학교 소프트웨어공학부에 합격 가능성은 있으나, 실제 합격 여부는 수능 점수와 학생부 교과성적 등 여러 요소가 결합되어 결정됩니다.
+추가적으로, 입학사정관 제도를 통해 지원할 수도 있으며, 이 경우 학생의 전반적인 성장 가능성을 평가받을 수 있습니다. 따라서, 정시 성적이 4.2인 경우에도 동의대학교 소프트웨어공학부에 합격 가능성은 있으므로, 적극적으로 지원해보는 것이 좋습니다.
+추가 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 화학환경공학부의 평균 성적과 관련된 정보를 포함하고 있으며, 3.92의 성적이 평균보다 높은 점수라는 점을 언급하고 있습니다. 그러나 실기/실적 위주의 전형에 대한 설명이 추가되어 있어, 일부 정보가 다소 변형되어 전달되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 실기/실적 위주의 전형에 대한 언급이 추가되어 있어 원본의 맥락과 약간의 불일치가 발생합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 화학환경공학부의 전형과 관련된 정보를 제공하고 있으며, 질문의 주제와 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 하여 정확한 내용을 전달하고 있지만, 실기/실적 위주의 전형에 대한 설명이 추가되어 있어 약간의 정보 왜곡이 있을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 기록하고 있습니다. 그러나 일부 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있지만, 실기/실적 위주의 전형에 대한 추가 정보가 원본의 의미를 약간 변형시킬 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.6885642035111867</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학부 일반 학생 전형에 대한 정보를 확인해보겠습니다.
+1. **정시 모집군**: 먼저 해당 학과가 어떤 정시 모집군으로 분류되어 있는지 확인해야 합니다. 예전 데이터에서는 "화학환경공학부(화학공학, 환경공학, 응용화학)"로 분류되었으므로, 2024년도에도 같은 모집군으로 분류될 가능성이 높습니다.
+2. **성적 산출**: 성적이 3.92이라면, 이는 학생부 교과 성적을 반영한 점수입니다. 일반적으로 화학환경공학부의 경우, 수능 위주 전형이 아닌 실기/실적 위주의 전형으로 모집하는 경우가 많습니다.
+3. **전형 요소**: 2024년도 동의대학교의 전형 요소 반영 비율을 확인해보겠습니다.
+   - "실기/실적(경기실적우수자전형): 학생부교과18%+출결12%+서류(실적)70%"
+4. **가능성**: 성적이 3.92이라면, 학생부 교과 성적은 상당히 높습니다. 그러나 화학환경공학부의 경우, 실기/실적 위주의 전형으로 모집되므로, 이 성적만으로는 충분한 점수를 받기는 어려울 수 있습니다.
+5. **추천**: 
+   - **학생부 교과성적**을 높이는 것이 중요합니다.
+   - **면접 준비**도 필요하며, 실기/실적 위주의 전형이므로 관련 활동이나 경력을 강조하는 것이 좋습니다.
+   - **수능 최저 기준**을 확인하여 충족할 수 있는지 확인해야 합니다.
+따라서, 현재의 성적만으로는 화학환경공학부 일반 학생전형에 확실하게 합격하기 어려울 것으로 보입니다. 그러나 실기/실적 위주의 전형에서 좋은 점수를 받을 수 있도록 준비하는 것이 중요합니다.
+추가 정보나 자세한 조언이 필요하시다면, 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하거나 직접 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 내용을 완전히 반대하는 주장을 하고 있습니다. 원본에서는 4.25라는 성적이 합격 가능성이 높다고 판단했으나, 생성된 응답에서는 합격 가능성이 낮다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서 제시된 합격 가능성이 높은 판단과는 정반대의 내용을 담고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용과는 다소 거리가 있습니다. 원본의 데이터에 기반한 판단이 아닌, 일반적인 조건을 나열하고 있어 관련성은 있지만 직접적인 연관성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 가지 이유를 나열하고 있으나, 이들이 원본 텍스트의 주제와 어떻게 연결되는지 명확하지 않습니다. 따라서 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 정반대의 내용을 담고 있어 정확성이 매우 낮습니다. 원본의 데이터와 판단을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 관계가 거의 없기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 맞지 않는 주장을 하고 있어 의미적으로 부적절한 부분이 많습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 관계가 불명확하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.7030836393227488</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>4.25라는 성적을 가지고 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능성은 낮습니다. 이유는 다음과 같습니다:
+1. **모집단위와 전형요소 반영비율**: 화학환경공학부는 공과대학 계열에 속하며, 해당 분야의 전형요소 반영 비율을 확인해야 합니다. 일반적으로 수능 성적은 합격 기준 중 큰 비중을 차지합니다.
+2. **수능 최고합격 점수**: 동의대학교의 2024학년도 수능 최고합격 점수가 공개되어 있다면, 그 점수를 참조해야 합니다. 예를 들어, 특정 모집단위에서 평균 합격 점수가 410점 이상이었다면, 4.25라는 성적은 충분히 낮습니다.
+3. **경쟁률**: 해당 분야의 경쟁률을 확인해야 합니다. 높은 경쟁률에서는 수능 성적이 더 높아야 합격 가능성에 도달할 수 있습니다.
+4. **가산점 및 특별기준**: 일부 모집단위에는 가산점이 적용되거나, 특정 기준이 있을 수 있으므로 이 점도 고려해야 합니다.
+따라서, 정확한 답변을 위해서는 동의대학교 화학환경공학부의 2024학년도 수능 최고합격 점수와 경쟁률, 그리고 해당 분야의 전형요소 반영 비율 등을 확인해야 합니다. 이 정보를 바탕으로 판단하면 더 정확한 답변을 제공할 수 있습니다.
+추가로, "https://ipsi.deu.ac.kr/main.do" 웹사이트에서 동의대학교의 최신 입학정보와 합격 기준을 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 4.2라는 점수만으로 합격 여부를 판단하기 어렵다고 언급하고 있으며, 이는 사실과 일치합니다. 그러나, 원본 텍스트에서 제공된 평균 성적과 비교하여 합격 가능성이 존재한다고 판단한 내용을 충분히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 합격 가능성에 대한 판단이 모호하게 표현되어 있어 일관성이 떨어집니다. 원본 텍스트는 4.2점이 합격 가능성이 있다고 명확히 언급하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 영화학과의 평가 기준과 관련된 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나, 합격 가능성에 대한 명확한 결론이 부족하여 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 4.2라는 점수에 대한 정확한 정보를 제공하지 않으며, 원본 텍스트의 평균 성적과 비교하여 합격 가능성을 명확히 언급하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성, 유창성, 일관성 등에서 좋은 점수를 받고 있습니다. 그러나 사실성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 질문에 대한 적절한 답변을 제공합니다. 다만, 합격 가능성에 대한 명확한 언급이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6276342424067262</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수만으로는 확실한 답변을 드리기 어렵습니다. 영화학과의 경우, 각 대학마다 다른 평가 기준이 적용되므로 정확한 예측은 불가능합니다.
+영화학과 지원 시 주요 평가 요소로는 학업성적, 학생부 내용, 면접 성적이 포함됩니다. 따라서 4.2라는 점수만으로는 합격 여부를 판단하기 어렵습니다.
+추천드리면:
+1. 해당 대학의 정시 전형 기준을 꼼꼼히 확인하세요.
+2. 지원한 대학들의 평균 합격 점수와 비교해 보세요.
+3. 자신의 학생부 내용과 면접 준비를 잘 해보세요.
+더 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크에서 각 대학의 정시 전형 기준을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 문장도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 내용이 원본의 정보와 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.9357961189469116</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 면접에서 동일하게 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
